--- a/authors.xlsx
+++ b/authors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\Desktop\goodreads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0152745-A7FE-4AF5-92EA-9242B74E9344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CD79F4-0D31-4933-B914-E74DB2EAC981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1161,9 +1161,6 @@
     <t>Black</t>
   </si>
   <si>
-    <t>Hispanic or Latino</t>
-  </si>
-  <si>
     <t>Pacific Islander</t>
   </si>
   <si>
@@ -1186,6 +1183,9 @@
   </si>
   <si>
     <t>Man</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
   </si>
 </sst>
 </file>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1751,7 +1751,7 @@
         <v>373</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1781,7 +1781,7 @@
         <v>364</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>376</v>
@@ -1815,7 +1815,7 @@
         <v>270</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>376</v>
@@ -1849,7 +1849,7 @@
         <v>348</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>376</v>
@@ -1883,7 +1883,7 @@
         <v>359</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>376</v>
@@ -1917,7 +1917,7 @@
         <v>308</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>376</v>
@@ -1951,7 +1951,7 @@
         <v>276</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>377</v>
@@ -1985,7 +1985,7 @@
         <v>272</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>377</v>
@@ -2006,7 +2006,7 @@
         <v>126</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F9" s="6">
         <v>609</v>
@@ -2019,10 +2019,10 @@
         <v>270</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L9" s="4"/>
     </row>
@@ -2053,10 +2053,10 @@
         <v>270</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L10" s="4"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>287</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L11" s="4"/>
     </row>
@@ -2121,10 +2121,10 @@
         <v>337</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L12" s="4"/>
     </row>
@@ -2155,10 +2155,10 @@
         <v>355</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L13" s="4"/>
     </row>
@@ -2189,10 +2189,10 @@
         <v>326</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L14" s="4"/>
     </row>
@@ -2223,10 +2223,10 @@
         <v>313</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L15" s="4"/>
     </row>
@@ -2257,10 +2257,10 @@
         <v>270</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L16" s="4"/>
     </row>
@@ -2291,10 +2291,10 @@
         <v>334</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L17" s="4"/>
     </row>
@@ -2325,10 +2325,10 @@
         <v>293</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L18" s="4"/>
     </row>
@@ -2359,10 +2359,10 @@
         <v>321</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L19" s="4"/>
     </row>
@@ -2393,10 +2393,10 @@
         <v>361</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L20" s="4"/>
     </row>
@@ -2427,10 +2427,10 @@
         <v>312</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L21" s="4"/>
     </row>
@@ -2461,10 +2461,10 @@
         <v>368</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L22" s="4"/>
     </row>
@@ -2495,10 +2495,10 @@
         <v>323</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L23" s="4"/>
     </row>
@@ -2529,10 +2529,10 @@
         <v>346</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L24" s="4"/>
     </row>
@@ -2563,10 +2563,10 @@
         <v>353</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L25" s="4"/>
     </row>
@@ -2597,10 +2597,10 @@
         <v>304</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L26" s="4"/>
     </row>
@@ -2631,10 +2631,10 @@
         <v>322</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L27" s="4"/>
     </row>
@@ -2665,10 +2665,10 @@
         <v>270</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L28" s="4"/>
     </row>
@@ -2699,10 +2699,10 @@
         <v>309</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L29" s="4"/>
     </row>
@@ -2733,10 +2733,10 @@
         <v>319</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L30" s="4"/>
     </row>
@@ -2767,10 +2767,10 @@
         <v>305</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L31" s="4"/>
     </row>
@@ -2801,10 +2801,10 @@
         <v>358</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L32" s="4"/>
     </row>
@@ -2835,10 +2835,10 @@
         <v>279</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L33" s="4"/>
     </row>
@@ -2869,10 +2869,10 @@
         <v>329</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L34" s="4"/>
     </row>
@@ -2903,10 +2903,10 @@
         <v>297</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L35" s="4"/>
     </row>
@@ -2937,10 +2937,10 @@
         <v>288</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -2971,10 +2971,10 @@
         <v>344</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L37" s="4"/>
     </row>
@@ -3005,10 +3005,10 @@
         <v>283</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L38" s="4"/>
     </row>
@@ -3039,10 +3039,10 @@
         <v>352</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L39" s="4"/>
     </row>
@@ -3073,10 +3073,10 @@
         <v>347</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L40" s="4"/>
     </row>
@@ -3107,10 +3107,10 @@
         <v>335</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L41" s="4"/>
     </row>
@@ -3141,10 +3141,10 @@
         <v>274</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L42" s="4"/>
     </row>
@@ -3175,10 +3175,10 @@
         <v>282</v>
       </c>
       <c r="J43" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="L43" s="4"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>286</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L44" s="4"/>
     </row>
@@ -3243,10 +3243,10 @@
         <v>291</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L45" s="4"/>
     </row>
@@ -3277,10 +3277,10 @@
         <v>343</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L46" s="4"/>
     </row>
@@ -3311,10 +3311,10 @@
         <v>339</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L47" s="4"/>
     </row>
@@ -3345,10 +3345,10 @@
         <v>340</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L48" s="4"/>
     </row>
@@ -3379,10 +3379,10 @@
         <v>284</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L49" s="4"/>
     </row>
@@ -3415,10 +3415,10 @@
         <v>300</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L50" s="4"/>
     </row>
@@ -3449,10 +3449,10 @@
         <v>303</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L51" s="4"/>
     </row>
@@ -3483,10 +3483,10 @@
         <v>317</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L52" s="4"/>
     </row>
@@ -3517,10 +3517,10 @@
         <v>290</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L53" s="4"/>
     </row>
@@ -3551,10 +3551,10 @@
         <v>338</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L54" s="4"/>
     </row>
@@ -3585,10 +3585,10 @@
         <v>333</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L55" s="4"/>
     </row>
@@ -3619,10 +3619,10 @@
         <v>298</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L56" s="4"/>
     </row>
@@ -3653,10 +3653,10 @@
         <v>362</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L57" s="4"/>
     </row>
@@ -3687,10 +3687,10 @@
         <v>294</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L58" s="4"/>
     </row>
@@ -3721,10 +3721,10 @@
         <v>314</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L59" s="4"/>
     </row>
@@ -3755,10 +3755,10 @@
         <v>316</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L60" s="4"/>
     </row>
@@ -3789,10 +3789,10 @@
         <v>331</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L61" s="4"/>
     </row>
@@ -3823,10 +3823,10 @@
         <v>285</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L62" s="4"/>
     </row>
@@ -3857,10 +3857,10 @@
         <v>289</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L63" s="4"/>
     </row>
@@ -3891,10 +3891,10 @@
         <v>366</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L64" s="4"/>
     </row>
@@ -3925,10 +3925,10 @@
         <v>270</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L65" s="4"/>
     </row>
@@ -3959,10 +3959,10 @@
         <v>332</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L66" s="4"/>
     </row>
@@ -3993,10 +3993,10 @@
         <v>270</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L67" s="4"/>
     </row>
@@ -4027,10 +4027,10 @@
         <v>270</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L68" s="4"/>
     </row>
@@ -4061,10 +4061,10 @@
         <v>270</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L69" s="4"/>
     </row>
@@ -4097,10 +4097,10 @@
         <v>270</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L70" s="4"/>
     </row>
@@ -4131,10 +4131,10 @@
         <v>270</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L71" s="4"/>
     </row>
@@ -4165,10 +4165,10 @@
         <v>318</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L72" s="4"/>
     </row>
@@ -4199,10 +4199,10 @@
         <v>269</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L73" s="4"/>
     </row>
@@ -4233,10 +4233,10 @@
         <v>278</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L74" s="4"/>
     </row>
@@ -4267,10 +4267,10 @@
         <v>275</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L75" s="4"/>
     </row>
@@ -4301,10 +4301,10 @@
         <v>311</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L76" s="4"/>
     </row>
@@ -4335,10 +4335,10 @@
         <v>270</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L77" s="4"/>
     </row>
@@ -4369,10 +4369,10 @@
         <v>270</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L78" s="4"/>
     </row>
@@ -4403,10 +4403,10 @@
         <v>281</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L79" s="4"/>
     </row>
@@ -4437,10 +4437,10 @@
         <v>350</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L80" s="4"/>
     </row>
@@ -4471,10 +4471,10 @@
         <v>295</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L81" s="4"/>
     </row>
@@ -4505,10 +4505,10 @@
         <v>302</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L82" s="4"/>
     </row>
@@ -4539,10 +4539,10 @@
         <v>351</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L83" s="4"/>
     </row>
@@ -4573,10 +4573,10 @@
         <v>296</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L84" s="4"/>
     </row>
@@ -4607,10 +4607,10 @@
         <v>349</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L85" s="4"/>
     </row>
@@ -4641,10 +4641,10 @@
         <v>356</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L86" s="4"/>
     </row>
@@ -4675,10 +4675,10 @@
         <v>315</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L87" s="4"/>
     </row>
@@ -4709,10 +4709,10 @@
         <v>280</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L88" s="4"/>
     </row>
@@ -4743,10 +4743,10 @@
         <v>363</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L89" s="4"/>
     </row>
@@ -4777,10 +4777,10 @@
         <v>360</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L90" s="4"/>
     </row>
@@ -4811,10 +4811,10 @@
         <v>370</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L91" s="4"/>
     </row>
@@ -4845,10 +4845,10 @@
         <v>341</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L92" s="4"/>
     </row>
@@ -4879,10 +4879,10 @@
         <v>299</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L93" s="4"/>
     </row>
@@ -4913,10 +4913,10 @@
         <v>325</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L94" s="4"/>
     </row>
@@ -4947,10 +4947,10 @@
         <v>354</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L95" s="4"/>
     </row>
@@ -4981,10 +4981,10 @@
         <v>301</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L96" s="4"/>
     </row>
@@ -5015,10 +5015,10 @@
         <v>369</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L97" s="4"/>
     </row>
@@ -5049,10 +5049,10 @@
         <v>357</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L98" s="4"/>
     </row>
@@ -5083,10 +5083,10 @@
         <v>371</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L99" s="4"/>
     </row>
@@ -5117,10 +5117,10 @@
         <v>336</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L100" s="4"/>
     </row>
@@ -5151,10 +5151,10 @@
         <v>277</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L101" s="4"/>
     </row>
@@ -5185,10 +5185,10 @@
         <v>324</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L102" s="4"/>
     </row>
@@ -5219,10 +5219,10 @@
         <v>342</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L103" s="4"/>
     </row>
@@ -5253,10 +5253,10 @@
         <v>367</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L104" s="4"/>
     </row>
@@ -5287,10 +5287,10 @@
         <v>306</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L105" s="4"/>
     </row>
@@ -5321,10 +5321,10 @@
         <v>330</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L106" s="4"/>
     </row>
@@ -5355,10 +5355,10 @@
         <v>345</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L107" s="4"/>
     </row>
@@ -5389,10 +5389,10 @@
         <v>292</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L108" s="4"/>
     </row>
@@ -5423,10 +5423,10 @@
         <v>328</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L109" s="4"/>
     </row>
@@ -5457,10 +5457,10 @@
         <v>307</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L110" s="4"/>
     </row>
@@ -5493,10 +5493,10 @@
         <v>310</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L111" s="4"/>
     </row>
@@ -5527,10 +5527,10 @@
         <v>271</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L112" s="4"/>
     </row>
@@ -5561,10 +5561,10 @@
         <v>320</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L113" s="4"/>
     </row>
@@ -5595,10 +5595,10 @@
         <v>327</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L114" s="4"/>
     </row>
@@ -5629,10 +5629,10 @@
         <v>270</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L115" s="4"/>
     </row>
@@ -5663,13 +5663,13 @@
         <v>365</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K116" s="8" t="s">
         <v>376</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5699,10 +5699,10 @@
         <v>274</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L117" s="4"/>
     </row>
@@ -5733,10 +5733,10 @@
         <v>274</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L118" s="4"/>
     </row>
@@ -5767,10 +5767,10 @@
         <v>270</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L119" s="4"/>
     </row>
@@ -5801,10 +5801,10 @@
         <v>274</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L120" s="4"/>
     </row>
@@ -5835,10 +5835,10 @@
         <v>270</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L121" s="4"/>
     </row>
@@ -5856,7 +5856,7 @@
         <v>43</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F122" s="6">
         <v>123</v>
@@ -5869,10 +5869,10 @@
         <v>274</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L122" s="4"/>
     </row>
@@ -5903,10 +5903,10 @@
         <v>273</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L123" s="4"/>
     </row>
@@ -5937,10 +5937,10 @@
         <v>270</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L124" s="4"/>
     </row>
@@ -5971,10 +5971,10 @@
         <v>270</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L125" s="4"/>
     </row>
@@ -6005,10 +6005,10 @@
         <v>274</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L126" s="4"/>
     </row>
@@ -6039,10 +6039,10 @@
         <v>270</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L127" s="4"/>
     </row>
@@ -6073,7 +6073,7 @@
         <v>270</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K128" s="8" t="s">
         <v>377</v>
@@ -6107,10 +6107,10 @@
         <v>274</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L129" s="4"/>
     </row>
@@ -6143,10 +6143,10 @@
         <v>270</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L130" s="4"/>
     </row>
@@ -6177,10 +6177,10 @@
         <v>270</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L131" s="4"/>
     </row>
@@ -6211,10 +6211,10 @@
         <v>270</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L132" s="4"/>
     </row>
@@ -18660,7 +18660,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18687,17 +18687,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/authors.xlsx
+++ b/authors.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\Desktop\goodreads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CD79F4-0D31-4933-B914-E74DB2EAC981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="-105" windowWidth="22080" windowHeight="13178"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1191,7 +1185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1428,7 +1422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1461,26 +1455,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1513,23 +1490,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1705,17 +1665,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.88671875" customWidth="1"/>
+    <col min="6" max="7" width="8.86328125" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1856,7 +1820,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5">
         <v>114</v>
       </c>
@@ -3148,7 +3112,7 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="5">
         <v>19</v>
       </c>
@@ -3762,7 +3726,7 @@
       </c>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="5">
         <v>81</v>
       </c>
@@ -3796,7 +3760,7 @@
       </c>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="5">
         <v>26</v>
       </c>
@@ -3830,7 +3794,7 @@
       </c>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="5">
         <v>31</v>
       </c>
@@ -3864,7 +3828,7 @@
       </c>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="5">
         <v>123</v>
       </c>
@@ -3898,7 +3862,7 @@
       </c>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="5">
         <v>23</v>
       </c>
@@ -3932,7 +3896,7 @@
       </c>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="5">
         <v>82</v>
       </c>
@@ -3966,7 +3930,7 @@
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="5">
         <v>3</v>
       </c>
@@ -4000,7 +3964,7 @@
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="5">
         <v>84</v>
       </c>
@@ -4034,7 +3998,7 @@
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -4068,7 +4032,7 @@
       </c>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="5">
         <v>24</v>
       </c>
@@ -4104,7 +4068,7 @@
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="5">
         <v>128</v>
       </c>
@@ -4138,7 +4102,7 @@
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="5">
         <v>68</v>
       </c>
@@ -4172,7 +4136,7 @@
       </c>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="5">
         <v>0</v>
       </c>
@@ -4206,7 +4170,7 @@
       </c>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="5">
         <v>11</v>
       </c>
@@ -4240,7 +4204,7 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="5">
         <v>8</v>
       </c>
@@ -4274,7 +4238,7 @@
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="5">
         <v>60</v>
       </c>
@@ -4308,7 +4272,7 @@
       </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="5">
         <v>2</v>
       </c>
@@ -4342,7 +4306,7 @@
       </c>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="5">
         <v>43</v>
       </c>
@@ -4376,7 +4340,7 @@
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="5">
         <v>16</v>
       </c>
@@ -4410,7 +4374,7 @@
       </c>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="5">
         <v>103</v>
       </c>
@@ -4444,7 +4408,7 @@
       </c>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="5">
         <v>39</v>
       </c>
@@ -4478,7 +4442,7 @@
       </c>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="5">
         <v>47</v>
       </c>
@@ -4512,7 +4476,7 @@
       </c>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="5">
         <v>104</v>
       </c>
@@ -4546,7 +4510,7 @@
       </c>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="5">
         <v>40</v>
       </c>
@@ -4580,7 +4544,7 @@
       </c>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="5">
         <v>101</v>
       </c>
@@ -4614,7 +4578,7 @@
       </c>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="5">
         <v>110</v>
       </c>
@@ -4648,7 +4612,7 @@
       </c>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="5">
         <v>65</v>
       </c>
@@ -4682,7 +4646,7 @@
       </c>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="5">
         <v>15</v>
       </c>
@@ -4716,7 +4680,7 @@
       </c>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="5">
         <v>120</v>
       </c>
@@ -4750,7 +4714,7 @@
       </c>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="5">
         <v>115</v>
       </c>
@@ -4784,7 +4748,7 @@
       </c>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="5">
         <v>127</v>
       </c>
@@ -4818,7 +4782,7 @@
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" s="5">
         <v>93</v>
       </c>
@@ -4852,7 +4816,7 @@
       </c>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="5">
         <v>44</v>
       </c>
@@ -4886,7 +4850,7 @@
       </c>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="5">
         <v>75</v>
       </c>
@@ -4920,7 +4884,7 @@
       </c>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="5">
         <v>107</v>
       </c>
@@ -4954,7 +4918,7 @@
       </c>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="5">
         <v>46</v>
       </c>
@@ -4988,7 +4952,7 @@
       </c>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97" s="5">
         <v>126</v>
       </c>
@@ -5022,7 +4986,7 @@
       </c>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="5">
         <v>112</v>
       </c>
@@ -5056,7 +5020,7 @@
       </c>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="5">
         <v>130</v>
       </c>
@@ -5090,7 +5054,7 @@
       </c>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="5">
         <v>88</v>
       </c>
@@ -5124,7 +5088,7 @@
       </c>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="5">
         <v>10</v>
       </c>
@@ -5158,7 +5122,7 @@
       </c>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="5">
         <v>74</v>
       </c>
@@ -5192,7 +5156,7 @@
       </c>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="5">
         <v>94</v>
       </c>
@@ -5226,7 +5190,7 @@
       </c>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="5">
         <v>124</v>
       </c>
@@ -5260,7 +5224,7 @@
       </c>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="5">
         <v>51</v>
       </c>
@@ -5294,7 +5258,7 @@
       </c>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="5">
         <v>80</v>
       </c>
@@ -5328,7 +5292,7 @@
       </c>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="5">
         <v>97</v>
       </c>
@@ -5362,7 +5326,7 @@
       </c>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="5">
         <v>34</v>
       </c>
@@ -5396,7 +5360,7 @@
       </c>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="5">
         <v>78</v>
       </c>
@@ -5430,7 +5394,7 @@
       </c>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="5">
         <v>52</v>
       </c>
@@ -5464,7 +5428,7 @@
       </c>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="5">
         <v>58</v>
       </c>
@@ -5500,7 +5464,7 @@
       </c>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="5">
         <v>4</v>
       </c>
@@ -5534,7 +5498,7 @@
       </c>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="5">
         <v>70</v>
       </c>
@@ -5568,7 +5532,7 @@
       </c>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="5">
         <v>77</v>
       </c>
@@ -5602,7 +5566,7 @@
       </c>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="5">
         <v>56</v>
       </c>
@@ -5636,7 +5600,7 @@
       </c>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="5">
         <v>122</v>
       </c>
@@ -5672,7 +5636,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="5">
         <v>57</v>
       </c>
@@ -5706,7 +5670,7 @@
       </c>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="5">
         <v>7</v>
       </c>
@@ -5740,7 +5704,7 @@
       </c>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A119" s="5">
         <v>53</v>
       </c>
@@ -5774,7 +5738,7 @@
       </c>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="5">
         <v>20</v>
       </c>
@@ -5808,7 +5772,7 @@
       </c>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A121" s="5">
         <v>116</v>
       </c>
@@ -5842,7 +5806,7 @@
       </c>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A122" s="5">
         <v>35</v>
       </c>
@@ -5876,7 +5840,7 @@
       </c>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A123" s="5">
         <v>6</v>
       </c>
@@ -5910,7 +5874,7 @@
       </c>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124" s="5">
         <v>13</v>
       </c>
@@ -5944,7 +5908,7 @@
       </c>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A125" s="5">
         <v>129</v>
       </c>
@@ -5978,7 +5942,7 @@
       </c>
       <c r="L125" s="4"/>
     </row>
-    <row r="126" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A126" s="5">
         <v>108</v>
       </c>
@@ -6012,7 +5976,7 @@
       </c>
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127" s="5">
         <v>27</v>
       </c>
@@ -6046,7 +6010,7 @@
       </c>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A128" s="5">
         <v>18</v>
       </c>
@@ -6080,7 +6044,7 @@
       </c>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A129" s="5">
         <v>17</v>
       </c>
@@ -6114,7 +6078,7 @@
       </c>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A130" s="5">
         <v>59</v>
       </c>
@@ -6150,7 +6114,7 @@
       </c>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A131" s="5">
         <v>14</v>
       </c>
@@ -6184,7 +6148,7 @@
       </c>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A132" s="5">
         <v>87</v>
       </c>
@@ -6218,7 +6182,7 @@
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6232,7 +6196,7 @@
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6246,7 +6210,7 @@
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6260,7 +6224,7 @@
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6274,7 +6238,7 @@
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6288,7 +6252,7 @@
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6302,7 +6266,7 @@
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6316,7 +6280,7 @@
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6330,7 +6294,7 @@
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6344,7 +6308,7 @@
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6358,7 +6322,7 @@
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -6372,7 +6336,7 @@
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -6386,7 +6350,7 @@
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -6400,7 +6364,7 @@
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6414,7 +6378,7 @@
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
     </row>
-    <row r="147" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -6428,7 +6392,7 @@
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -6442,7 +6406,7 @@
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -6456,7 +6420,7 @@
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
     </row>
-    <row r="150" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6470,7 +6434,7 @@
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
     </row>
-    <row r="151" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -6484,7 +6448,7 @@
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -6498,7 +6462,7 @@
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
     </row>
-    <row r="153" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -6512,7 +6476,7 @@
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
     </row>
-    <row r="154" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -6526,7 +6490,7 @@
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -6540,7 +6504,7 @@
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
     </row>
-    <row r="156" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -6554,7 +6518,7 @@
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
     </row>
-    <row r="157" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -6568,7 +6532,7 @@
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
     </row>
-    <row r="158" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -6582,7 +6546,7 @@
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
     </row>
-    <row r="159" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -6596,7 +6560,7 @@
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -6610,7 +6574,7 @@
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -6624,7 +6588,7 @@
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
     </row>
-    <row r="162" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -6638,7 +6602,7 @@
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -6652,7 +6616,7 @@
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -6666,7 +6630,7 @@
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -6680,7 +6644,7 @@
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -6694,7 +6658,7 @@
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6708,7 +6672,7 @@
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6722,7 +6686,7 @@
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6736,7 +6700,7 @@
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6750,7 +6714,7 @@
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6764,7 +6728,7 @@
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6778,7 +6742,7 @@
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6792,7 +6756,7 @@
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6806,7 +6770,7 @@
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -6820,7 +6784,7 @@
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6834,7 +6798,7 @@
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6848,7 +6812,7 @@
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -6862,7 +6826,7 @@
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
     </row>
-    <row r="179" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -6876,7 +6840,7 @@
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6890,7 +6854,7 @@
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
     </row>
-    <row r="181" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6904,7 +6868,7 @@
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
     </row>
-    <row r="182" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -6918,7 +6882,7 @@
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
     </row>
-    <row r="183" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -6932,7 +6896,7 @@
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
     </row>
-    <row r="184" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -6946,7 +6910,7 @@
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
     </row>
-    <row r="185" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -6960,7 +6924,7 @@
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -6974,7 +6938,7 @@
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
     </row>
-    <row r="187" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6988,7 +6952,7 @@
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
     </row>
-    <row r="188" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7002,7 +6966,7 @@
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
     </row>
-    <row r="189" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7016,7 +6980,7 @@
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
     </row>
-    <row r="190" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7030,7 +6994,7 @@
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
     </row>
-    <row r="191" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7044,7 +7008,7 @@
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
     </row>
-    <row r="192" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7058,7 +7022,7 @@
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
     </row>
-    <row r="193" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7072,7 +7036,7 @@
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
     </row>
-    <row r="194" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7086,7 +7050,7 @@
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
     </row>
-    <row r="195" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7100,7 +7064,7 @@
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
     </row>
-    <row r="196" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7114,7 +7078,7 @@
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
     </row>
-    <row r="197" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7128,7 +7092,7 @@
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
     </row>
-    <row r="198" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7142,7 +7106,7 @@
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
     </row>
-    <row r="199" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7156,7 +7120,7 @@
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
     </row>
-    <row r="200" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7170,7 +7134,7 @@
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
     </row>
-    <row r="201" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -7184,7 +7148,7 @@
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
     </row>
-    <row r="202" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -7198,7 +7162,7 @@
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
     </row>
-    <row r="203" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -7212,7 +7176,7 @@
       <c r="K203" s="4"/>
       <c r="L203" s="4"/>
     </row>
-    <row r="204" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -7226,7 +7190,7 @@
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
     </row>
-    <row r="205" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -7240,7 +7204,7 @@
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
     </row>
-    <row r="206" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -7254,7 +7218,7 @@
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
     </row>
-    <row r="207" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -7268,7 +7232,7 @@
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
     </row>
-    <row r="208" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -7282,7 +7246,7 @@
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
     </row>
-    <row r="209" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -7296,7 +7260,7 @@
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
     </row>
-    <row r="210" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -7310,7 +7274,7 @@
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
     </row>
-    <row r="211" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -7324,7 +7288,7 @@
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
     </row>
-    <row r="212" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -7338,7 +7302,7 @@
       <c r="K212" s="4"/>
       <c r="L212" s="4"/>
     </row>
-    <row r="213" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -7352,7 +7316,7 @@
       <c r="K213" s="4"/>
       <c r="L213" s="4"/>
     </row>
-    <row r="214" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -7366,7 +7330,7 @@
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
     </row>
-    <row r="215" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -7380,7 +7344,7 @@
       <c r="K215" s="4"/>
       <c r="L215" s="4"/>
     </row>
-    <row r="216" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -7394,7 +7358,7 @@
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
     </row>
-    <row r="217" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -7408,7 +7372,7 @@
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
     </row>
-    <row r="218" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -7422,7 +7386,7 @@
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
     </row>
-    <row r="219" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -7436,7 +7400,7 @@
       <c r="K219" s="4"/>
       <c r="L219" s="4"/>
     </row>
-    <row r="220" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -7450,7 +7414,7 @@
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
     </row>
-    <row r="221" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -7464,7 +7428,7 @@
       <c r="K221" s="4"/>
       <c r="L221" s="4"/>
     </row>
-    <row r="222" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -7478,7 +7442,7 @@
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
     </row>
-    <row r="223" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -7492,7 +7456,7 @@
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
     </row>
-    <row r="224" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -7506,7 +7470,7 @@
       <c r="K224" s="4"/>
       <c r="L224" s="4"/>
     </row>
-    <row r="225" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -7520,7 +7484,7 @@
       <c r="K225" s="4"/>
       <c r="L225" s="4"/>
     </row>
-    <row r="226" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -7534,7 +7498,7 @@
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
     </row>
-    <row r="227" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -7548,7 +7512,7 @@
       <c r="K227" s="4"/>
       <c r="L227" s="4"/>
     </row>
-    <row r="228" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -7562,7 +7526,7 @@
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
     </row>
-    <row r="229" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -7576,7 +7540,7 @@
       <c r="K229" s="4"/>
       <c r="L229" s="4"/>
     </row>
-    <row r="230" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -7590,7 +7554,7 @@
       <c r="K230" s="4"/>
       <c r="L230" s="4"/>
     </row>
-    <row r="231" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -7604,7 +7568,7 @@
       <c r="K231" s="4"/>
       <c r="L231" s="4"/>
     </row>
-    <row r="232" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -7618,7 +7582,7 @@
       <c r="K232" s="4"/>
       <c r="L232" s="4"/>
     </row>
-    <row r="233" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -7632,7 +7596,7 @@
       <c r="K233" s="4"/>
       <c r="L233" s="4"/>
     </row>
-    <row r="234" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -7646,7 +7610,7 @@
       <c r="K234" s="4"/>
       <c r="L234" s="4"/>
     </row>
-    <row r="235" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -7660,7 +7624,7 @@
       <c r="K235" s="4"/>
       <c r="L235" s="4"/>
     </row>
-    <row r="236" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -7674,7 +7638,7 @@
       <c r="K236" s="4"/>
       <c r="L236" s="4"/>
     </row>
-    <row r="237" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -7688,7 +7652,7 @@
       <c r="K237" s="4"/>
       <c r="L237" s="4"/>
     </row>
-    <row r="238" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -7702,7 +7666,7 @@
       <c r="K238" s="4"/>
       <c r="L238" s="4"/>
     </row>
-    <row r="239" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -7716,7 +7680,7 @@
       <c r="K239" s="4"/>
       <c r="L239" s="4"/>
     </row>
-    <row r="240" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -7730,7 +7694,7 @@
       <c r="K240" s="4"/>
       <c r="L240" s="4"/>
     </row>
-    <row r="241" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -7744,7 +7708,7 @@
       <c r="K241" s="4"/>
       <c r="L241" s="4"/>
     </row>
-    <row r="242" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -7758,7 +7722,7 @@
       <c r="K242" s="4"/>
       <c r="L242" s="4"/>
     </row>
-    <row r="243" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -7772,7 +7736,7 @@
       <c r="K243" s="4"/>
       <c r="L243" s="4"/>
     </row>
-    <row r="244" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -7786,7 +7750,7 @@
       <c r="K244" s="4"/>
       <c r="L244" s="4"/>
     </row>
-    <row r="245" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -7800,7 +7764,7 @@
       <c r="K245" s="4"/>
       <c r="L245" s="4"/>
     </row>
-    <row r="246" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -7814,7 +7778,7 @@
       <c r="K246" s="4"/>
       <c r="L246" s="4"/>
     </row>
-    <row r="247" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -7828,7 +7792,7 @@
       <c r="K247" s="4"/>
       <c r="L247" s="4"/>
     </row>
-    <row r="248" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -7842,7 +7806,7 @@
       <c r="K248" s="4"/>
       <c r="L248" s="4"/>
     </row>
-    <row r="249" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -7856,7 +7820,7 @@
       <c r="K249" s="4"/>
       <c r="L249" s="4"/>
     </row>
-    <row r="250" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -7870,7 +7834,7 @@
       <c r="K250" s="4"/>
       <c r="L250" s="4"/>
     </row>
-    <row r="251" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -7884,7 +7848,7 @@
       <c r="K251" s="4"/>
       <c r="L251" s="4"/>
     </row>
-    <row r="252" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -7898,7 +7862,7 @@
       <c r="K252" s="4"/>
       <c r="L252" s="4"/>
     </row>
-    <row r="253" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -7912,7 +7876,7 @@
       <c r="K253" s="4"/>
       <c r="L253" s="4"/>
     </row>
-    <row r="254" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -7926,7 +7890,7 @@
       <c r="K254" s="4"/>
       <c r="L254" s="4"/>
     </row>
-    <row r="255" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -7940,7 +7904,7 @@
       <c r="K255" s="4"/>
       <c r="L255" s="4"/>
     </row>
-    <row r="256" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -7954,7 +7918,7 @@
       <c r="K256" s="4"/>
       <c r="L256" s="4"/>
     </row>
-    <row r="257" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -7968,7 +7932,7 @@
       <c r="K257" s="4"/>
       <c r="L257" s="4"/>
     </row>
-    <row r="258" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -7982,7 +7946,7 @@
       <c r="K258" s="4"/>
       <c r="L258" s="4"/>
     </row>
-    <row r="259" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -7996,7 +7960,7 @@
       <c r="K259" s="4"/>
       <c r="L259" s="4"/>
     </row>
-    <row r="260" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -8010,7 +7974,7 @@
       <c r="K260" s="4"/>
       <c r="L260" s="4"/>
     </row>
-    <row r="261" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -8024,7 +7988,7 @@
       <c r="K261" s="4"/>
       <c r="L261" s="4"/>
     </row>
-    <row r="262" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -8038,7 +8002,7 @@
       <c r="K262" s="4"/>
       <c r="L262" s="4"/>
     </row>
-    <row r="263" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -8052,7 +8016,7 @@
       <c r="K263" s="4"/>
       <c r="L263" s="4"/>
     </row>
-    <row r="264" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -8066,7 +8030,7 @@
       <c r="K264" s="4"/>
       <c r="L264" s="4"/>
     </row>
-    <row r="265" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -8080,7 +8044,7 @@
       <c r="K265" s="4"/>
       <c r="L265" s="4"/>
     </row>
-    <row r="266" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -8094,7 +8058,7 @@
       <c r="K266" s="4"/>
       <c r="L266" s="4"/>
     </row>
-    <row r="267" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -8108,7 +8072,7 @@
       <c r="K267" s="4"/>
       <c r="L267" s="4"/>
     </row>
-    <row r="268" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -8122,7 +8086,7 @@
       <c r="K268" s="4"/>
       <c r="L268" s="4"/>
     </row>
-    <row r="269" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -8136,7 +8100,7 @@
       <c r="K269" s="4"/>
       <c r="L269" s="4"/>
     </row>
-    <row r="270" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -8150,7 +8114,7 @@
       <c r="K270" s="4"/>
       <c r="L270" s="4"/>
     </row>
-    <row r="271" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -8164,7 +8128,7 @@
       <c r="K271" s="4"/>
       <c r="L271" s="4"/>
     </row>
-    <row r="272" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -8178,7 +8142,7 @@
       <c r="K272" s="4"/>
       <c r="L272" s="4"/>
     </row>
-    <row r="273" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -8192,7 +8156,7 @@
       <c r="K273" s="4"/>
       <c r="L273" s="4"/>
     </row>
-    <row r="274" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -8206,7 +8170,7 @@
       <c r="K274" s="4"/>
       <c r="L274" s="4"/>
     </row>
-    <row r="275" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -8220,7 +8184,7 @@
       <c r="K275" s="4"/>
       <c r="L275" s="4"/>
     </row>
-    <row r="276" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -8234,7 +8198,7 @@
       <c r="K276" s="4"/>
       <c r="L276" s="4"/>
     </row>
-    <row r="277" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -8248,7 +8212,7 @@
       <c r="K277" s="4"/>
       <c r="L277" s="4"/>
     </row>
-    <row r="278" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -8262,7 +8226,7 @@
       <c r="K278" s="4"/>
       <c r="L278" s="4"/>
     </row>
-    <row r="279" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -8276,7 +8240,7 @@
       <c r="K279" s="4"/>
       <c r="L279" s="4"/>
     </row>
-    <row r="280" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -8290,7 +8254,7 @@
       <c r="K280" s="4"/>
       <c r="L280" s="4"/>
     </row>
-    <row r="281" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -8304,7 +8268,7 @@
       <c r="K281" s="4"/>
       <c r="L281" s="4"/>
     </row>
-    <row r="282" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -8318,7 +8282,7 @@
       <c r="K282" s="4"/>
       <c r="L282" s="4"/>
     </row>
-    <row r="283" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -8332,7 +8296,7 @@
       <c r="K283" s="4"/>
       <c r="L283" s="4"/>
     </row>
-    <row r="284" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -8346,7 +8310,7 @@
       <c r="K284" s="4"/>
       <c r="L284" s="4"/>
     </row>
-    <row r="285" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -8360,7 +8324,7 @@
       <c r="K285" s="4"/>
       <c r="L285" s="4"/>
     </row>
-    <row r="286" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -8374,7 +8338,7 @@
       <c r="K286" s="4"/>
       <c r="L286" s="4"/>
     </row>
-    <row r="287" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -8388,7 +8352,7 @@
       <c r="K287" s="4"/>
       <c r="L287" s="4"/>
     </row>
-    <row r="288" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -8402,7 +8366,7 @@
       <c r="K288" s="4"/>
       <c r="L288" s="4"/>
     </row>
-    <row r="289" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -8416,7 +8380,7 @@
       <c r="K289" s="4"/>
       <c r="L289" s="4"/>
     </row>
-    <row r="290" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -8430,7 +8394,7 @@
       <c r="K290" s="4"/>
       <c r="L290" s="4"/>
     </row>
-    <row r="291" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -8444,7 +8408,7 @@
       <c r="K291" s="4"/>
       <c r="L291" s="4"/>
     </row>
-    <row r="292" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -8458,7 +8422,7 @@
       <c r="K292" s="4"/>
       <c r="L292" s="4"/>
     </row>
-    <row r="293" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -8472,7 +8436,7 @@
       <c r="K293" s="4"/>
       <c r="L293" s="4"/>
     </row>
-    <row r="294" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -8486,7 +8450,7 @@
       <c r="K294" s="4"/>
       <c r="L294" s="4"/>
     </row>
-    <row r="295" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -8500,7 +8464,7 @@
       <c r="K295" s="4"/>
       <c r="L295" s="4"/>
     </row>
-    <row r="296" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -8514,7 +8478,7 @@
       <c r="K296" s="4"/>
       <c r="L296" s="4"/>
     </row>
-    <row r="297" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -8528,7 +8492,7 @@
       <c r="K297" s="4"/>
       <c r="L297" s="4"/>
     </row>
-    <row r="298" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -8542,7 +8506,7 @@
       <c r="K298" s="4"/>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -8556,7 +8520,7 @@
       <c r="K299" s="4"/>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -8570,7 +8534,7 @@
       <c r="K300" s="4"/>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -8584,7 +8548,7 @@
       <c r="K301" s="4"/>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -8598,7 +8562,7 @@
       <c r="K302" s="4"/>
       <c r="L302" s="4"/>
     </row>
-    <row r="303" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -8612,7 +8576,7 @@
       <c r="K303" s="4"/>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -8626,7 +8590,7 @@
       <c r="K304" s="4"/>
       <c r="L304" s="4"/>
     </row>
-    <row r="305" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -8640,7 +8604,7 @@
       <c r="K305" s="4"/>
       <c r="L305" s="4"/>
     </row>
-    <row r="306" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -8654,7 +8618,7 @@
       <c r="K306" s="4"/>
       <c r="L306" s="4"/>
     </row>
-    <row r="307" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -8668,7 +8632,7 @@
       <c r="K307" s="4"/>
       <c r="L307" s="4"/>
     </row>
-    <row r="308" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -8682,7 +8646,7 @@
       <c r="K308" s="4"/>
       <c r="L308" s="4"/>
     </row>
-    <row r="309" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -8696,7 +8660,7 @@
       <c r="K309" s="4"/>
       <c r="L309" s="4"/>
     </row>
-    <row r="310" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -8710,7 +8674,7 @@
       <c r="K310" s="4"/>
       <c r="L310" s="4"/>
     </row>
-    <row r="311" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -8724,7 +8688,7 @@
       <c r="K311" s="4"/>
       <c r="L311" s="4"/>
     </row>
-    <row r="312" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -8738,7 +8702,7 @@
       <c r="K312" s="4"/>
       <c r="L312" s="4"/>
     </row>
-    <row r="313" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -8752,7 +8716,7 @@
       <c r="K313" s="4"/>
       <c r="L313" s="4"/>
     </row>
-    <row r="314" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -8766,7 +8730,7 @@
       <c r="K314" s="4"/>
       <c r="L314" s="4"/>
     </row>
-    <row r="315" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -8780,7 +8744,7 @@
       <c r="K315" s="4"/>
       <c r="L315" s="4"/>
     </row>
-    <row r="316" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -8794,7 +8758,7 @@
       <c r="K316" s="4"/>
       <c r="L316" s="4"/>
     </row>
-    <row r="317" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -8808,7 +8772,7 @@
       <c r="K317" s="4"/>
       <c r="L317" s="4"/>
     </row>
-    <row r="318" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -8822,7 +8786,7 @@
       <c r="K318" s="4"/>
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -8836,7 +8800,7 @@
       <c r="K319" s="4"/>
       <c r="L319" s="4"/>
     </row>
-    <row r="320" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -8850,7 +8814,7 @@
       <c r="K320" s="4"/>
       <c r="L320" s="4"/>
     </row>
-    <row r="321" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -8864,7 +8828,7 @@
       <c r="K321" s="4"/>
       <c r="L321" s="4"/>
     </row>
-    <row r="322" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -8878,7 +8842,7 @@
       <c r="K322" s="4"/>
       <c r="L322" s="4"/>
     </row>
-    <row r="323" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -8892,7 +8856,7 @@
       <c r="K323" s="4"/>
       <c r="L323" s="4"/>
     </row>
-    <row r="324" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -8906,7 +8870,7 @@
       <c r="K324" s="4"/>
       <c r="L324" s="4"/>
     </row>
-    <row r="325" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -8920,7 +8884,7 @@
       <c r="K325" s="4"/>
       <c r="L325" s="4"/>
     </row>
-    <row r="326" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -8934,7 +8898,7 @@
       <c r="K326" s="4"/>
       <c r="L326" s="4"/>
     </row>
-    <row r="327" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -8948,7 +8912,7 @@
       <c r="K327" s="4"/>
       <c r="L327" s="4"/>
     </row>
-    <row r="328" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -8962,7 +8926,7 @@
       <c r="K328" s="4"/>
       <c r="L328" s="4"/>
     </row>
-    <row r="329" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -8976,7 +8940,7 @@
       <c r="K329" s="4"/>
       <c r="L329" s="4"/>
     </row>
-    <row r="330" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -8990,7 +8954,7 @@
       <c r="K330" s="4"/>
       <c r="L330" s="4"/>
     </row>
-    <row r="331" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -9004,7 +8968,7 @@
       <c r="K331" s="4"/>
       <c r="L331" s="4"/>
     </row>
-    <row r="332" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -9018,7 +8982,7 @@
       <c r="K332" s="4"/>
       <c r="L332" s="4"/>
     </row>
-    <row r="333" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -9032,7 +8996,7 @@
       <c r="K333" s="4"/>
       <c r="L333" s="4"/>
     </row>
-    <row r="334" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -9046,7 +9010,7 @@
       <c r="K334" s="4"/>
       <c r="L334" s="4"/>
     </row>
-    <row r="335" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -9060,7 +9024,7 @@
       <c r="K335" s="4"/>
       <c r="L335" s="4"/>
     </row>
-    <row r="336" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -9074,7 +9038,7 @@
       <c r="K336" s="4"/>
       <c r="L336" s="4"/>
     </row>
-    <row r="337" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -9088,7 +9052,7 @@
       <c r="K337" s="4"/>
       <c r="L337" s="4"/>
     </row>
-    <row r="338" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -9102,7 +9066,7 @@
       <c r="K338" s="4"/>
       <c r="L338" s="4"/>
     </row>
-    <row r="339" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -9116,7 +9080,7 @@
       <c r="K339" s="4"/>
       <c r="L339" s="4"/>
     </row>
-    <row r="340" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -9130,7 +9094,7 @@
       <c r="K340" s="4"/>
       <c r="L340" s="4"/>
     </row>
-    <row r="341" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -9144,7 +9108,7 @@
       <c r="K341" s="4"/>
       <c r="L341" s="4"/>
     </row>
-    <row r="342" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -9158,7 +9122,7 @@
       <c r="K342" s="4"/>
       <c r="L342" s="4"/>
     </row>
-    <row r="343" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -9172,7 +9136,7 @@
       <c r="K343" s="4"/>
       <c r="L343" s="4"/>
     </row>
-    <row r="344" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -9186,7 +9150,7 @@
       <c r="K344" s="4"/>
       <c r="L344" s="4"/>
     </row>
-    <row r="345" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -9200,7 +9164,7 @@
       <c r="K345" s="4"/>
       <c r="L345" s="4"/>
     </row>
-    <row r="346" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -9214,7 +9178,7 @@
       <c r="K346" s="4"/>
       <c r="L346" s="4"/>
     </row>
-    <row r="347" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -9228,7 +9192,7 @@
       <c r="K347" s="4"/>
       <c r="L347" s="4"/>
     </row>
-    <row r="348" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -9242,7 +9206,7 @@
       <c r="K348" s="4"/>
       <c r="L348" s="4"/>
     </row>
-    <row r="349" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -9256,7 +9220,7 @@
       <c r="K349" s="4"/>
       <c r="L349" s="4"/>
     </row>
-    <row r="350" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -9270,7 +9234,7 @@
       <c r="K350" s="4"/>
       <c r="L350" s="4"/>
     </row>
-    <row r="351" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -9284,7 +9248,7 @@
       <c r="K351" s="4"/>
       <c r="L351" s="4"/>
     </row>
-    <row r="352" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -9298,7 +9262,7 @@
       <c r="K352" s="4"/>
       <c r="L352" s="4"/>
     </row>
-    <row r="353" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -9312,7 +9276,7 @@
       <c r="K353" s="4"/>
       <c r="L353" s="4"/>
     </row>
-    <row r="354" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -9326,7 +9290,7 @@
       <c r="K354" s="4"/>
       <c r="L354" s="4"/>
     </row>
-    <row r="355" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -9340,7 +9304,7 @@
       <c r="K355" s="4"/>
       <c r="L355" s="4"/>
     </row>
-    <row r="356" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -9354,7 +9318,7 @@
       <c r="K356" s="4"/>
       <c r="L356" s="4"/>
     </row>
-    <row r="357" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -9368,7 +9332,7 @@
       <c r="K357" s="4"/>
       <c r="L357" s="4"/>
     </row>
-    <row r="358" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -9382,7 +9346,7 @@
       <c r="K358" s="4"/>
       <c r="L358" s="4"/>
     </row>
-    <row r="359" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -9396,7 +9360,7 @@
       <c r="K359" s="4"/>
       <c r="L359" s="4"/>
     </row>
-    <row r="360" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -9410,7 +9374,7 @@
       <c r="K360" s="4"/>
       <c r="L360" s="4"/>
     </row>
-    <row r="361" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -9424,7 +9388,7 @@
       <c r="K361" s="4"/>
       <c r="L361" s="4"/>
     </row>
-    <row r="362" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -9438,7 +9402,7 @@
       <c r="K362" s="4"/>
       <c r="L362" s="4"/>
     </row>
-    <row r="363" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -9452,7 +9416,7 @@
       <c r="K363" s="4"/>
       <c r="L363" s="4"/>
     </row>
-    <row r="364" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -9466,7 +9430,7 @@
       <c r="K364" s="4"/>
       <c r="L364" s="4"/>
     </row>
-    <row r="365" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -9480,7 +9444,7 @@
       <c r="K365" s="4"/>
       <c r="L365" s="4"/>
     </row>
-    <row r="366" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -9494,7 +9458,7 @@
       <c r="K366" s="4"/>
       <c r="L366" s="4"/>
     </row>
-    <row r="367" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -9508,7 +9472,7 @@
       <c r="K367" s="4"/>
       <c r="L367" s="4"/>
     </row>
-    <row r="368" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -9522,7 +9486,7 @@
       <c r="K368" s="4"/>
       <c r="L368" s="4"/>
     </row>
-    <row r="369" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -9536,7 +9500,7 @@
       <c r="K369" s="4"/>
       <c r="L369" s="4"/>
     </row>
-    <row r="370" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -9550,7 +9514,7 @@
       <c r="K370" s="4"/>
       <c r="L370" s="4"/>
     </row>
-    <row r="371" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -9564,7 +9528,7 @@
       <c r="K371" s="4"/>
       <c r="L371" s="4"/>
     </row>
-    <row r="372" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -9578,7 +9542,7 @@
       <c r="K372" s="4"/>
       <c r="L372" s="4"/>
     </row>
-    <row r="373" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -9592,7 +9556,7 @@
       <c r="K373" s="4"/>
       <c r="L373" s="4"/>
     </row>
-    <row r="374" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -9606,7 +9570,7 @@
       <c r="K374" s="4"/>
       <c r="L374" s="4"/>
     </row>
-    <row r="375" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -9620,7 +9584,7 @@
       <c r="K375" s="4"/>
       <c r="L375" s="4"/>
     </row>
-    <row r="376" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -9634,7 +9598,7 @@
       <c r="K376" s="4"/>
       <c r="L376" s="4"/>
     </row>
-    <row r="377" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -9648,7 +9612,7 @@
       <c r="K377" s="4"/>
       <c r="L377" s="4"/>
     </row>
-    <row r="378" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -9662,7 +9626,7 @@
       <c r="K378" s="4"/>
       <c r="L378" s="4"/>
     </row>
-    <row r="379" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -9676,7 +9640,7 @@
       <c r="K379" s="4"/>
       <c r="L379" s="4"/>
     </row>
-    <row r="380" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -9690,7 +9654,7 @@
       <c r="K380" s="4"/>
       <c r="L380" s="4"/>
     </row>
-    <row r="381" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -9704,7 +9668,7 @@
       <c r="K381" s="4"/>
       <c r="L381" s="4"/>
     </row>
-    <row r="382" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -9718,7 +9682,7 @@
       <c r="K382" s="4"/>
       <c r="L382" s="4"/>
     </row>
-    <row r="383" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -9732,7 +9696,7 @@
       <c r="K383" s="4"/>
       <c r="L383" s="4"/>
     </row>
-    <row r="384" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -9746,7 +9710,7 @@
       <c r="K384" s="4"/>
       <c r="L384" s="4"/>
     </row>
-    <row r="385" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -9760,7 +9724,7 @@
       <c r="K385" s="4"/>
       <c r="L385" s="4"/>
     </row>
-    <row r="386" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -9774,7 +9738,7 @@
       <c r="K386" s="4"/>
       <c r="L386" s="4"/>
     </row>
-    <row r="387" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -9788,7 +9752,7 @@
       <c r="K387" s="4"/>
       <c r="L387" s="4"/>
     </row>
-    <row r="388" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -9802,7 +9766,7 @@
       <c r="K388" s="4"/>
       <c r="L388" s="4"/>
     </row>
-    <row r="389" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -9816,7 +9780,7 @@
       <c r="K389" s="4"/>
       <c r="L389" s="4"/>
     </row>
-    <row r="390" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -9830,7 +9794,7 @@
       <c r="K390" s="4"/>
       <c r="L390" s="4"/>
     </row>
-    <row r="391" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -9844,7 +9808,7 @@
       <c r="K391" s="4"/>
       <c r="L391" s="4"/>
     </row>
-    <row r="392" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -9858,7 +9822,7 @@
       <c r="K392" s="4"/>
       <c r="L392" s="4"/>
     </row>
-    <row r="393" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -9872,7 +9836,7 @@
       <c r="K393" s="4"/>
       <c r="L393" s="4"/>
     </row>
-    <row r="394" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -9886,7 +9850,7 @@
       <c r="K394" s="4"/>
       <c r="L394" s="4"/>
     </row>
-    <row r="395" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -9900,7 +9864,7 @@
       <c r="K395" s="4"/>
       <c r="L395" s="4"/>
     </row>
-    <row r="396" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -9914,7 +9878,7 @@
       <c r="K396" s="4"/>
       <c r="L396" s="4"/>
     </row>
-    <row r="397" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -9928,7 +9892,7 @@
       <c r="K397" s="4"/>
       <c r="L397" s="4"/>
     </row>
-    <row r="398" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -9942,7 +9906,7 @@
       <c r="K398" s="4"/>
       <c r="L398" s="4"/>
     </row>
-    <row r="399" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -9956,7 +9920,7 @@
       <c r="K399" s="4"/>
       <c r="L399" s="4"/>
     </row>
-    <row r="400" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -9970,7 +9934,7 @@
       <c r="K400" s="4"/>
       <c r="L400" s="4"/>
     </row>
-    <row r="401" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -9984,7 +9948,7 @@
       <c r="K401" s="4"/>
       <c r="L401" s="4"/>
     </row>
-    <row r="402" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -9998,7 +9962,7 @@
       <c r="K402" s="4"/>
       <c r="L402" s="4"/>
     </row>
-    <row r="403" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -10012,7 +9976,7 @@
       <c r="K403" s="4"/>
       <c r="L403" s="4"/>
     </row>
-    <row r="404" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -10026,7 +9990,7 @@
       <c r="K404" s="4"/>
       <c r="L404" s="4"/>
     </row>
-    <row r="405" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -10040,7 +10004,7 @@
       <c r="K405" s="4"/>
       <c r="L405" s="4"/>
     </row>
-    <row r="406" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -10054,7 +10018,7 @@
       <c r="K406" s="4"/>
       <c r="L406" s="4"/>
     </row>
-    <row r="407" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -10068,7 +10032,7 @@
       <c r="K407" s="4"/>
       <c r="L407" s="4"/>
     </row>
-    <row r="408" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -10082,7 +10046,7 @@
       <c r="K408" s="4"/>
       <c r="L408" s="4"/>
     </row>
-    <row r="409" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -10096,7 +10060,7 @@
       <c r="K409" s="4"/>
       <c r="L409" s="4"/>
     </row>
-    <row r="410" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -10110,7 +10074,7 @@
       <c r="K410" s="4"/>
       <c r="L410" s="4"/>
     </row>
-    <row r="411" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -10124,7 +10088,7 @@
       <c r="K411" s="4"/>
       <c r="L411" s="4"/>
     </row>
-    <row r="412" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -10138,7 +10102,7 @@
       <c r="K412" s="4"/>
       <c r="L412" s="4"/>
     </row>
-    <row r="413" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -10152,7 +10116,7 @@
       <c r="K413" s="4"/>
       <c r="L413" s="4"/>
     </row>
-    <row r="414" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -10166,7 +10130,7 @@
       <c r="K414" s="4"/>
       <c r="L414" s="4"/>
     </row>
-    <row r="415" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -10180,7 +10144,7 @@
       <c r="K415" s="4"/>
       <c r="L415" s="4"/>
     </row>
-    <row r="416" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -10194,7 +10158,7 @@
       <c r="K416" s="4"/>
       <c r="L416" s="4"/>
     </row>
-    <row r="417" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -10208,7 +10172,7 @@
       <c r="K417" s="4"/>
       <c r="L417" s="4"/>
     </row>
-    <row r="418" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -10222,7 +10186,7 @@
       <c r="K418" s="4"/>
       <c r="L418" s="4"/>
     </row>
-    <row r="419" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -10236,7 +10200,7 @@
       <c r="K419" s="4"/>
       <c r="L419" s="4"/>
     </row>
-    <row r="420" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -10250,7 +10214,7 @@
       <c r="K420" s="4"/>
       <c r="L420" s="4"/>
     </row>
-    <row r="421" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -10264,7 +10228,7 @@
       <c r="K421" s="4"/>
       <c r="L421" s="4"/>
     </row>
-    <row r="422" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -10278,7 +10242,7 @@
       <c r="K422" s="4"/>
       <c r="L422" s="4"/>
     </row>
-    <row r="423" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -10292,7 +10256,7 @@
       <c r="K423" s="4"/>
       <c r="L423" s="4"/>
     </row>
-    <row r="424" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -10306,7 +10270,7 @@
       <c r="K424" s="4"/>
       <c r="L424" s="4"/>
     </row>
-    <row r="425" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -10320,7 +10284,7 @@
       <c r="K425" s="4"/>
       <c r="L425" s="4"/>
     </row>
-    <row r="426" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -10334,7 +10298,7 @@
       <c r="K426" s="4"/>
       <c r="L426" s="4"/>
     </row>
-    <row r="427" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -10348,7 +10312,7 @@
       <c r="K427" s="4"/>
       <c r="L427" s="4"/>
     </row>
-    <row r="428" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -10362,7 +10326,7 @@
       <c r="K428" s="4"/>
       <c r="L428" s="4"/>
     </row>
-    <row r="429" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -10376,7 +10340,7 @@
       <c r="K429" s="4"/>
       <c r="L429" s="4"/>
     </row>
-    <row r="430" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -10390,7 +10354,7 @@
       <c r="K430" s="4"/>
       <c r="L430" s="4"/>
     </row>
-    <row r="431" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -10404,7 +10368,7 @@
       <c r="K431" s="4"/>
       <c r="L431" s="4"/>
     </row>
-    <row r="432" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -10418,7 +10382,7 @@
       <c r="K432" s="4"/>
       <c r="L432" s="4"/>
     </row>
-    <row r="433" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -10432,7 +10396,7 @@
       <c r="K433" s="4"/>
       <c r="L433" s="4"/>
     </row>
-    <row r="434" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -10446,7 +10410,7 @@
       <c r="K434" s="4"/>
       <c r="L434" s="4"/>
     </row>
-    <row r="435" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -10460,7 +10424,7 @@
       <c r="K435" s="4"/>
       <c r="L435" s="4"/>
     </row>
-    <row r="436" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -10474,7 +10438,7 @@
       <c r="K436" s="4"/>
       <c r="L436" s="4"/>
     </row>
-    <row r="437" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -10488,7 +10452,7 @@
       <c r="K437" s="4"/>
       <c r="L437" s="4"/>
     </row>
-    <row r="438" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -10502,7 +10466,7 @@
       <c r="K438" s="4"/>
       <c r="L438" s="4"/>
     </row>
-    <row r="439" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -10516,7 +10480,7 @@
       <c r="K439" s="4"/>
       <c r="L439" s="4"/>
     </row>
-    <row r="440" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -10530,7 +10494,7 @@
       <c r="K440" s="4"/>
       <c r="L440" s="4"/>
     </row>
-    <row r="441" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -10544,7 +10508,7 @@
       <c r="K441" s="4"/>
       <c r="L441" s="4"/>
     </row>
-    <row r="442" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -10558,7 +10522,7 @@
       <c r="K442" s="4"/>
       <c r="L442" s="4"/>
     </row>
-    <row r="443" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -10572,7 +10536,7 @@
       <c r="K443" s="4"/>
       <c r="L443" s="4"/>
     </row>
-    <row r="444" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -10586,7 +10550,7 @@
       <c r="K444" s="4"/>
       <c r="L444" s="4"/>
     </row>
-    <row r="445" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -10600,7 +10564,7 @@
       <c r="K445" s="4"/>
       <c r="L445" s="4"/>
     </row>
-    <row r="446" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -10614,7 +10578,7 @@
       <c r="K446" s="4"/>
       <c r="L446" s="4"/>
     </row>
-    <row r="447" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -10628,7 +10592,7 @@
       <c r="K447" s="4"/>
       <c r="L447" s="4"/>
     </row>
-    <row r="448" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -10642,7 +10606,7 @@
       <c r="K448" s="4"/>
       <c r="L448" s="4"/>
     </row>
-    <row r="449" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -10656,7 +10620,7 @@
       <c r="K449" s="4"/>
       <c r="L449" s="4"/>
     </row>
-    <row r="450" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -10670,7 +10634,7 @@
       <c r="K450" s="4"/>
       <c r="L450" s="4"/>
     </row>
-    <row r="451" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -10684,7 +10648,7 @@
       <c r="K451" s="4"/>
       <c r="L451" s="4"/>
     </row>
-    <row r="452" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -10698,7 +10662,7 @@
       <c r="K452" s="4"/>
       <c r="L452" s="4"/>
     </row>
-    <row r="453" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -10712,7 +10676,7 @@
       <c r="K453" s="4"/>
       <c r="L453" s="4"/>
     </row>
-    <row r="454" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -10726,7 +10690,7 @@
       <c r="K454" s="4"/>
       <c r="L454" s="4"/>
     </row>
-    <row r="455" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -10740,7 +10704,7 @@
       <c r="K455" s="4"/>
       <c r="L455" s="4"/>
     </row>
-    <row r="456" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -10754,7 +10718,7 @@
       <c r="K456" s="4"/>
       <c r="L456" s="4"/>
     </row>
-    <row r="457" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -10768,7 +10732,7 @@
       <c r="K457" s="4"/>
       <c r="L457" s="4"/>
     </row>
-    <row r="458" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -10782,7 +10746,7 @@
       <c r="K458" s="4"/>
       <c r="L458" s="4"/>
     </row>
-    <row r="459" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -10796,7 +10760,7 @@
       <c r="K459" s="4"/>
       <c r="L459" s="4"/>
     </row>
-    <row r="460" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -10810,7 +10774,7 @@
       <c r="K460" s="4"/>
       <c r="L460" s="4"/>
     </row>
-    <row r="461" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -10824,7 +10788,7 @@
       <c r="K461" s="4"/>
       <c r="L461" s="4"/>
     </row>
-    <row r="462" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -10838,7 +10802,7 @@
       <c r="K462" s="4"/>
       <c r="L462" s="4"/>
     </row>
-    <row r="463" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -10852,7 +10816,7 @@
       <c r="K463" s="4"/>
       <c r="L463" s="4"/>
     </row>
-    <row r="464" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -10866,7 +10830,7 @@
       <c r="K464" s="4"/>
       <c r="L464" s="4"/>
     </row>
-    <row r="465" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -10880,7 +10844,7 @@
       <c r="K465" s="4"/>
       <c r="L465" s="4"/>
     </row>
-    <row r="466" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -10894,7 +10858,7 @@
       <c r="K466" s="4"/>
       <c r="L466" s="4"/>
     </row>
-    <row r="467" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -10908,7 +10872,7 @@
       <c r="K467" s="4"/>
       <c r="L467" s="4"/>
     </row>
-    <row r="468" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -10922,7 +10886,7 @@
       <c r="K468" s="4"/>
       <c r="L468" s="4"/>
     </row>
-    <row r="469" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -10936,7 +10900,7 @@
       <c r="K469" s="4"/>
       <c r="L469" s="4"/>
     </row>
-    <row r="470" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -10950,7 +10914,7 @@
       <c r="K470" s="4"/>
       <c r="L470" s="4"/>
     </row>
-    <row r="471" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -10964,7 +10928,7 @@
       <c r="K471" s="4"/>
       <c r="L471" s="4"/>
     </row>
-    <row r="472" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -10978,7 +10942,7 @@
       <c r="K472" s="4"/>
       <c r="L472" s="4"/>
     </row>
-    <row r="473" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -10992,7 +10956,7 @@
       <c r="K473" s="4"/>
       <c r="L473" s="4"/>
     </row>
-    <row r="474" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -11006,7 +10970,7 @@
       <c r="K474" s="4"/>
       <c r="L474" s="4"/>
     </row>
-    <row r="475" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -11020,7 +10984,7 @@
       <c r="K475" s="4"/>
       <c r="L475" s="4"/>
     </row>
-    <row r="476" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -11034,7 +10998,7 @@
       <c r="K476" s="4"/>
       <c r="L476" s="4"/>
     </row>
-    <row r="477" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -11048,7 +11012,7 @@
       <c r="K477" s="4"/>
       <c r="L477" s="4"/>
     </row>
-    <row r="478" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -11062,7 +11026,7 @@
       <c r="K478" s="4"/>
       <c r="L478" s="4"/>
     </row>
-    <row r="479" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -11076,7 +11040,7 @@
       <c r="K479" s="4"/>
       <c r="L479" s="4"/>
     </row>
-    <row r="480" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -11090,7 +11054,7 @@
       <c r="K480" s="4"/>
       <c r="L480" s="4"/>
     </row>
-    <row r="481" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -11104,7 +11068,7 @@
       <c r="K481" s="4"/>
       <c r="L481" s="4"/>
     </row>
-    <row r="482" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -11118,7 +11082,7 @@
       <c r="K482" s="4"/>
       <c r="L482" s="4"/>
     </row>
-    <row r="483" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -11132,7 +11096,7 @@
       <c r="K483" s="4"/>
       <c r="L483" s="4"/>
     </row>
-    <row r="484" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -11146,7 +11110,7 @@
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
     </row>
-    <row r="485" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -11160,7 +11124,7 @@
       <c r="K485" s="4"/>
       <c r="L485" s="4"/>
     </row>
-    <row r="486" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -11174,7 +11138,7 @@
       <c r="K486" s="4"/>
       <c r="L486" s="4"/>
     </row>
-    <row r="487" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -11188,7 +11152,7 @@
       <c r="K487" s="4"/>
       <c r="L487" s="4"/>
     </row>
-    <row r="488" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -11202,7 +11166,7 @@
       <c r="K488" s="4"/>
       <c r="L488" s="4"/>
     </row>
-    <row r="489" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -11216,7 +11180,7 @@
       <c r="K489" s="4"/>
       <c r="L489" s="4"/>
     </row>
-    <row r="490" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -11230,7 +11194,7 @@
       <c r="K490" s="4"/>
       <c r="L490" s="4"/>
     </row>
-    <row r="491" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -11244,7 +11208,7 @@
       <c r="K491" s="4"/>
       <c r="L491" s="4"/>
     </row>
-    <row r="492" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -11258,7 +11222,7 @@
       <c r="K492" s="4"/>
       <c r="L492" s="4"/>
     </row>
-    <row r="493" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -11272,7 +11236,7 @@
       <c r="K493" s="4"/>
       <c r="L493" s="4"/>
     </row>
-    <row r="494" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -11286,7 +11250,7 @@
       <c r="K494" s="4"/>
       <c r="L494" s="4"/>
     </row>
-    <row r="495" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -11300,7 +11264,7 @@
       <c r="K495" s="4"/>
       <c r="L495" s="4"/>
     </row>
-    <row r="496" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -11314,7 +11278,7 @@
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
     </row>
-    <row r="497" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -11328,7 +11292,7 @@
       <c r="K497" s="4"/>
       <c r="L497" s="4"/>
     </row>
-    <row r="498" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -11342,7 +11306,7 @@
       <c r="K498" s="4"/>
       <c r="L498" s="4"/>
     </row>
-    <row r="499" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -11356,7 +11320,7 @@
       <c r="K499" s="4"/>
       <c r="L499" s="4"/>
     </row>
-    <row r="500" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -11370,7 +11334,7 @@
       <c r="K500" s="4"/>
       <c r="L500" s="4"/>
     </row>
-    <row r="501" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -11384,7 +11348,7 @@
       <c r="K501" s="4"/>
       <c r="L501" s="4"/>
     </row>
-    <row r="502" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -11398,7 +11362,7 @@
       <c r="K502" s="4"/>
       <c r="L502" s="4"/>
     </row>
-    <row r="503" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -11412,7 +11376,7 @@
       <c r="K503" s="4"/>
       <c r="L503" s="4"/>
     </row>
-    <row r="504" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -11426,7 +11390,7 @@
       <c r="K504" s="4"/>
       <c r="L504" s="4"/>
     </row>
-    <row r="505" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -11440,7 +11404,7 @@
       <c r="K505" s="4"/>
       <c r="L505" s="4"/>
     </row>
-    <row r="506" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -11454,7 +11418,7 @@
       <c r="K506" s="4"/>
       <c r="L506" s="4"/>
     </row>
-    <row r="507" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -11468,7 +11432,7 @@
       <c r="K507" s="4"/>
       <c r="L507" s="4"/>
     </row>
-    <row r="508" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -11482,7 +11446,7 @@
       <c r="K508" s="4"/>
       <c r="L508" s="4"/>
     </row>
-    <row r="509" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -11496,7 +11460,7 @@
       <c r="K509" s="4"/>
       <c r="L509" s="4"/>
     </row>
-    <row r="510" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -11510,7 +11474,7 @@
       <c r="K510" s="4"/>
       <c r="L510" s="4"/>
     </row>
-    <row r="511" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -11524,7 +11488,7 @@
       <c r="K511" s="4"/>
       <c r="L511" s="4"/>
     </row>
-    <row r="512" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -11538,7 +11502,7 @@
       <c r="K512" s="4"/>
       <c r="L512" s="4"/>
     </row>
-    <row r="513" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -11552,7 +11516,7 @@
       <c r="K513" s="4"/>
       <c r="L513" s="4"/>
     </row>
-    <row r="514" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -11566,7 +11530,7 @@
       <c r="K514" s="4"/>
       <c r="L514" s="4"/>
     </row>
-    <row r="515" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -11580,7 +11544,7 @@
       <c r="K515" s="4"/>
       <c r="L515" s="4"/>
     </row>
-    <row r="516" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -11594,7 +11558,7 @@
       <c r="K516" s="4"/>
       <c r="L516" s="4"/>
     </row>
-    <row r="517" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -11608,7 +11572,7 @@
       <c r="K517" s="4"/>
       <c r="L517" s="4"/>
     </row>
-    <row r="518" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -11622,7 +11586,7 @@
       <c r="K518" s="4"/>
       <c r="L518" s="4"/>
     </row>
-    <row r="519" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -11636,7 +11600,7 @@
       <c r="K519" s="4"/>
       <c r="L519" s="4"/>
     </row>
-    <row r="520" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -11650,7 +11614,7 @@
       <c r="K520" s="4"/>
       <c r="L520" s="4"/>
     </row>
-    <row r="521" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -11664,7 +11628,7 @@
       <c r="K521" s="4"/>
       <c r="L521" s="4"/>
     </row>
-    <row r="522" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -11678,7 +11642,7 @@
       <c r="K522" s="4"/>
       <c r="L522" s="4"/>
     </row>
-    <row r="523" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -11692,7 +11656,7 @@
       <c r="K523" s="4"/>
       <c r="L523" s="4"/>
     </row>
-    <row r="524" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -11706,7 +11670,7 @@
       <c r="K524" s="4"/>
       <c r="L524" s="4"/>
     </row>
-    <row r="525" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -11720,7 +11684,7 @@
       <c r="K525" s="4"/>
       <c r="L525" s="4"/>
     </row>
-    <row r="526" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -11734,7 +11698,7 @@
       <c r="K526" s="4"/>
       <c r="L526" s="4"/>
     </row>
-    <row r="527" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -11748,7 +11712,7 @@
       <c r="K527" s="4"/>
       <c r="L527" s="4"/>
     </row>
-    <row r="528" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -11762,7 +11726,7 @@
       <c r="K528" s="4"/>
       <c r="L528" s="4"/>
     </row>
-    <row r="529" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -11776,7 +11740,7 @@
       <c r="K529" s="4"/>
       <c r="L529" s="4"/>
     </row>
-    <row r="530" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -11790,7 +11754,7 @@
       <c r="K530" s="4"/>
       <c r="L530" s="4"/>
     </row>
-    <row r="531" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -11804,7 +11768,7 @@
       <c r="K531" s="4"/>
       <c r="L531" s="4"/>
     </row>
-    <row r="532" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -11818,7 +11782,7 @@
       <c r="K532" s="4"/>
       <c r="L532" s="4"/>
     </row>
-    <row r="533" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -11832,7 +11796,7 @@
       <c r="K533" s="4"/>
       <c r="L533" s="4"/>
     </row>
-    <row r="534" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -11846,7 +11810,7 @@
       <c r="K534" s="4"/>
       <c r="L534" s="4"/>
     </row>
-    <row r="535" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -11860,7 +11824,7 @@
       <c r="K535" s="4"/>
       <c r="L535" s="4"/>
     </row>
-    <row r="536" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -11874,7 +11838,7 @@
       <c r="K536" s="4"/>
       <c r="L536" s="4"/>
     </row>
-    <row r="537" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -11888,7 +11852,7 @@
       <c r="K537" s="4"/>
       <c r="L537" s="4"/>
     </row>
-    <row r="538" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -11902,7 +11866,7 @@
       <c r="K538" s="4"/>
       <c r="L538" s="4"/>
     </row>
-    <row r="539" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -11916,7 +11880,7 @@
       <c r="K539" s="4"/>
       <c r="L539" s="4"/>
     </row>
-    <row r="540" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -11930,7 +11894,7 @@
       <c r="K540" s="4"/>
       <c r="L540" s="4"/>
     </row>
-    <row r="541" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -11944,7 +11908,7 @@
       <c r="K541" s="4"/>
       <c r="L541" s="4"/>
     </row>
-    <row r="542" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -11958,7 +11922,7 @@
       <c r="K542" s="4"/>
       <c r="L542" s="4"/>
     </row>
-    <row r="543" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -11972,7 +11936,7 @@
       <c r="K543" s="4"/>
       <c r="L543" s="4"/>
     </row>
-    <row r="544" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -11986,7 +11950,7 @@
       <c r="K544" s="4"/>
       <c r="L544" s="4"/>
     </row>
-    <row r="545" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -12000,7 +11964,7 @@
       <c r="K545" s="4"/>
       <c r="L545" s="4"/>
     </row>
-    <row r="546" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -12014,7 +11978,7 @@
       <c r="K546" s="4"/>
       <c r="L546" s="4"/>
     </row>
-    <row r="547" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -12028,7 +11992,7 @@
       <c r="K547" s="4"/>
       <c r="L547" s="4"/>
     </row>
-    <row r="548" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -12042,7 +12006,7 @@
       <c r="K548" s="4"/>
       <c r="L548" s="4"/>
     </row>
-    <row r="549" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -12056,7 +12020,7 @@
       <c r="K549" s="4"/>
       <c r="L549" s="4"/>
     </row>
-    <row r="550" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -12070,7 +12034,7 @@
       <c r="K550" s="4"/>
       <c r="L550" s="4"/>
     </row>
-    <row r="551" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -12084,7 +12048,7 @@
       <c r="K551" s="4"/>
       <c r="L551" s="4"/>
     </row>
-    <row r="552" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -12098,7 +12062,7 @@
       <c r="K552" s="4"/>
       <c r="L552" s="4"/>
     </row>
-    <row r="553" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -12112,7 +12076,7 @@
       <c r="K553" s="4"/>
       <c r="L553" s="4"/>
     </row>
-    <row r="554" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -12126,7 +12090,7 @@
       <c r="K554" s="4"/>
       <c r="L554" s="4"/>
     </row>
-    <row r="555" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -12140,7 +12104,7 @@
       <c r="K555" s="4"/>
       <c r="L555" s="4"/>
     </row>
-    <row r="556" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -12154,7 +12118,7 @@
       <c r="K556" s="4"/>
       <c r="L556" s="4"/>
     </row>
-    <row r="557" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -12168,7 +12132,7 @@
       <c r="K557" s="4"/>
       <c r="L557" s="4"/>
     </row>
-    <row r="558" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -12182,7 +12146,7 @@
       <c r="K558" s="4"/>
       <c r="L558" s="4"/>
     </row>
-    <row r="559" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -12196,7 +12160,7 @@
       <c r="K559" s="4"/>
       <c r="L559" s="4"/>
     </row>
-    <row r="560" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -12210,7 +12174,7 @@
       <c r="K560" s="4"/>
       <c r="L560" s="4"/>
     </row>
-    <row r="561" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -12224,7 +12188,7 @@
       <c r="K561" s="4"/>
       <c r="L561" s="4"/>
     </row>
-    <row r="562" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -12238,7 +12202,7 @@
       <c r="K562" s="4"/>
       <c r="L562" s="4"/>
     </row>
-    <row r="563" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -12252,7 +12216,7 @@
       <c r="K563" s="4"/>
       <c r="L563" s="4"/>
     </row>
-    <row r="564" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -12266,7 +12230,7 @@
       <c r="K564" s="4"/>
       <c r="L564" s="4"/>
     </row>
-    <row r="565" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -12280,7 +12244,7 @@
       <c r="K565" s="4"/>
       <c r="L565" s="4"/>
     </row>
-    <row r="566" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -12294,7 +12258,7 @@
       <c r="K566" s="4"/>
       <c r="L566" s="4"/>
     </row>
-    <row r="567" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -12308,7 +12272,7 @@
       <c r="K567" s="4"/>
       <c r="L567" s="4"/>
     </row>
-    <row r="568" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -12322,7 +12286,7 @@
       <c r="K568" s="4"/>
       <c r="L568" s="4"/>
     </row>
-    <row r="569" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -12336,7 +12300,7 @@
       <c r="K569" s="4"/>
       <c r="L569" s="4"/>
     </row>
-    <row r="570" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -12350,7 +12314,7 @@
       <c r="K570" s="4"/>
       <c r="L570" s="4"/>
     </row>
-    <row r="571" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -12364,7 +12328,7 @@
       <c r="K571" s="4"/>
       <c r="L571" s="4"/>
     </row>
-    <row r="572" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -12378,7 +12342,7 @@
       <c r="K572" s="4"/>
       <c r="L572" s="4"/>
     </row>
-    <row r="573" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -12392,7 +12356,7 @@
       <c r="K573" s="4"/>
       <c r="L573" s="4"/>
     </row>
-    <row r="574" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -12406,7 +12370,7 @@
       <c r="K574" s="4"/>
       <c r="L574" s="4"/>
     </row>
-    <row r="575" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -12420,7 +12384,7 @@
       <c r="K575" s="4"/>
       <c r="L575" s="4"/>
     </row>
-    <row r="576" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -12434,7 +12398,7 @@
       <c r="K576" s="4"/>
       <c r="L576" s="4"/>
     </row>
-    <row r="577" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -12448,7 +12412,7 @@
       <c r="K577" s="4"/>
       <c r="L577" s="4"/>
     </row>
-    <row r="578" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -12462,7 +12426,7 @@
       <c r="K578" s="4"/>
       <c r="L578" s="4"/>
     </row>
-    <row r="579" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -12476,7 +12440,7 @@
       <c r="K579" s="4"/>
       <c r="L579" s="4"/>
     </row>
-    <row r="580" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -12490,7 +12454,7 @@
       <c r="K580" s="4"/>
       <c r="L580" s="4"/>
     </row>
-    <row r="581" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -12504,7 +12468,7 @@
       <c r="K581" s="4"/>
       <c r="L581" s="4"/>
     </row>
-    <row r="582" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -12518,7 +12482,7 @@
       <c r="K582" s="4"/>
       <c r="L582" s="4"/>
     </row>
-    <row r="583" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -12532,7 +12496,7 @@
       <c r="K583" s="4"/>
       <c r="L583" s="4"/>
     </row>
-    <row r="584" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -12546,7 +12510,7 @@
       <c r="K584" s="4"/>
       <c r="L584" s="4"/>
     </row>
-    <row r="585" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -12560,7 +12524,7 @@
       <c r="K585" s="4"/>
       <c r="L585" s="4"/>
     </row>
-    <row r="586" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -12574,7 +12538,7 @@
       <c r="K586" s="4"/>
       <c r="L586" s="4"/>
     </row>
-    <row r="587" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -12588,7 +12552,7 @@
       <c r="K587" s="4"/>
       <c r="L587" s="4"/>
     </row>
-    <row r="588" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -12602,7 +12566,7 @@
       <c r="K588" s="4"/>
       <c r="L588" s="4"/>
     </row>
-    <row r="589" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -12616,7 +12580,7 @@
       <c r="K589" s="4"/>
       <c r="L589" s="4"/>
     </row>
-    <row r="590" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -12630,7 +12594,7 @@
       <c r="K590" s="4"/>
       <c r="L590" s="4"/>
     </row>
-    <row r="591" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -12644,7 +12608,7 @@
       <c r="K591" s="4"/>
       <c r="L591" s="4"/>
     </row>
-    <row r="592" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -12658,7 +12622,7 @@
       <c r="K592" s="4"/>
       <c r="L592" s="4"/>
     </row>
-    <row r="593" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -12672,7 +12636,7 @@
       <c r="K593" s="4"/>
       <c r="L593" s="4"/>
     </row>
-    <row r="594" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -12686,7 +12650,7 @@
       <c r="K594" s="4"/>
       <c r="L594" s="4"/>
     </row>
-    <row r="595" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -12700,7 +12664,7 @@
       <c r="K595" s="4"/>
       <c r="L595" s="4"/>
     </row>
-    <row r="596" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -12714,7 +12678,7 @@
       <c r="K596" s="4"/>
       <c r="L596" s="4"/>
     </row>
-    <row r="597" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -12728,7 +12692,7 @@
       <c r="K597" s="4"/>
       <c r="L597" s="4"/>
     </row>
-    <row r="598" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -12742,7 +12706,7 @@
       <c r="K598" s="4"/>
       <c r="L598" s="4"/>
     </row>
-    <row r="599" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -12756,7 +12720,7 @@
       <c r="K599" s="4"/>
       <c r="L599" s="4"/>
     </row>
-    <row r="600" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -12770,7 +12734,7 @@
       <c r="K600" s="4"/>
       <c r="L600" s="4"/>
     </row>
-    <row r="601" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -12784,7 +12748,7 @@
       <c r="K601" s="4"/>
       <c r="L601" s="4"/>
     </row>
-    <row r="602" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -12798,7 +12762,7 @@
       <c r="K602" s="4"/>
       <c r="L602" s="4"/>
     </row>
-    <row r="603" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -12812,7 +12776,7 @@
       <c r="K603" s="4"/>
       <c r="L603" s="4"/>
     </row>
-    <row r="604" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -12826,7 +12790,7 @@
       <c r="K604" s="4"/>
       <c r="L604" s="4"/>
     </row>
-    <row r="605" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -12840,7 +12804,7 @@
       <c r="K605" s="4"/>
       <c r="L605" s="4"/>
     </row>
-    <row r="606" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -12854,7 +12818,7 @@
       <c r="K606" s="4"/>
       <c r="L606" s="4"/>
     </row>
-    <row r="607" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -12868,7 +12832,7 @@
       <c r="K607" s="4"/>
       <c r="L607" s="4"/>
     </row>
-    <row r="608" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -12882,7 +12846,7 @@
       <c r="K608" s="4"/>
       <c r="L608" s="4"/>
     </row>
-    <row r="609" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -12896,7 +12860,7 @@
       <c r="K609" s="4"/>
       <c r="L609" s="4"/>
     </row>
-    <row r="610" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -12910,7 +12874,7 @@
       <c r="K610" s="4"/>
       <c r="L610" s="4"/>
     </row>
-    <row r="611" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -12924,7 +12888,7 @@
       <c r="K611" s="4"/>
       <c r="L611" s="4"/>
     </row>
-    <row r="612" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -12938,7 +12902,7 @@
       <c r="K612" s="4"/>
       <c r="L612" s="4"/>
     </row>
-    <row r="613" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -12952,7 +12916,7 @@
       <c r="K613" s="4"/>
       <c r="L613" s="4"/>
     </row>
-    <row r="614" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -12966,7 +12930,7 @@
       <c r="K614" s="4"/>
       <c r="L614" s="4"/>
     </row>
-    <row r="615" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -12980,7 +12944,7 @@
       <c r="K615" s="4"/>
       <c r="L615" s="4"/>
     </row>
-    <row r="616" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -12994,7 +12958,7 @@
       <c r="K616" s="4"/>
       <c r="L616" s="4"/>
     </row>
-    <row r="617" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -13008,7 +12972,7 @@
       <c r="K617" s="4"/>
       <c r="L617" s="4"/>
     </row>
-    <row r="618" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -13022,7 +12986,7 @@
       <c r="K618" s="4"/>
       <c r="L618" s="4"/>
     </row>
-    <row r="619" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -13036,7 +13000,7 @@
       <c r="K619" s="4"/>
       <c r="L619" s="4"/>
     </row>
-    <row r="620" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -13050,7 +13014,7 @@
       <c r="K620" s="4"/>
       <c r="L620" s="4"/>
     </row>
-    <row r="621" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -13064,7 +13028,7 @@
       <c r="K621" s="4"/>
       <c r="L621" s="4"/>
     </row>
-    <row r="622" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -13078,7 +13042,7 @@
       <c r="K622" s="4"/>
       <c r="L622" s="4"/>
     </row>
-    <row r="623" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -13092,7 +13056,7 @@
       <c r="K623" s="4"/>
       <c r="L623" s="4"/>
     </row>
-    <row r="624" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -13106,7 +13070,7 @@
       <c r="K624" s="4"/>
       <c r="L624" s="4"/>
     </row>
-    <row r="625" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -13120,7 +13084,7 @@
       <c r="K625" s="4"/>
       <c r="L625" s="4"/>
     </row>
-    <row r="626" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -13134,7 +13098,7 @@
       <c r="K626" s="4"/>
       <c r="L626" s="4"/>
     </row>
-    <row r="627" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -13148,7 +13112,7 @@
       <c r="K627" s="4"/>
       <c r="L627" s="4"/>
     </row>
-    <row r="628" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -13162,7 +13126,7 @@
       <c r="K628" s="4"/>
       <c r="L628" s="4"/>
     </row>
-    <row r="629" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -13176,7 +13140,7 @@
       <c r="K629" s="4"/>
       <c r="L629" s="4"/>
     </row>
-    <row r="630" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -13190,7 +13154,7 @@
       <c r="K630" s="4"/>
       <c r="L630" s="4"/>
     </row>
-    <row r="631" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -13204,7 +13168,7 @@
       <c r="K631" s="4"/>
       <c r="L631" s="4"/>
     </row>
-    <row r="632" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -13218,7 +13182,7 @@
       <c r="K632" s="4"/>
       <c r="L632" s="4"/>
     </row>
-    <row r="633" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -13232,7 +13196,7 @@
       <c r="K633" s="4"/>
       <c r="L633" s="4"/>
     </row>
-    <row r="634" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -13246,7 +13210,7 @@
       <c r="K634" s="4"/>
       <c r="L634" s="4"/>
     </row>
-    <row r="635" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -13260,7 +13224,7 @@
       <c r="K635" s="4"/>
       <c r="L635" s="4"/>
     </row>
-    <row r="636" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -13274,7 +13238,7 @@
       <c r="K636" s="4"/>
       <c r="L636" s="4"/>
     </row>
-    <row r="637" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -13288,7 +13252,7 @@
       <c r="K637" s="4"/>
       <c r="L637" s="4"/>
     </row>
-    <row r="638" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -13302,7 +13266,7 @@
       <c r="K638" s="4"/>
       <c r="L638" s="4"/>
     </row>
-    <row r="639" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -13316,7 +13280,7 @@
       <c r="K639" s="4"/>
       <c r="L639" s="4"/>
     </row>
-    <row r="640" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -13330,7 +13294,7 @@
       <c r="K640" s="4"/>
       <c r="L640" s="4"/>
     </row>
-    <row r="641" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -13344,7 +13308,7 @@
       <c r="K641" s="4"/>
       <c r="L641" s="4"/>
     </row>
-    <row r="642" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -13358,7 +13322,7 @@
       <c r="K642" s="4"/>
       <c r="L642" s="4"/>
     </row>
-    <row r="643" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -13372,7 +13336,7 @@
       <c r="K643" s="4"/>
       <c r="L643" s="4"/>
     </row>
-    <row r="644" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -13386,7 +13350,7 @@
       <c r="K644" s="4"/>
       <c r="L644" s="4"/>
     </row>
-    <row r="645" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -13400,7 +13364,7 @@
       <c r="K645" s="4"/>
       <c r="L645" s="4"/>
     </row>
-    <row r="646" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -13414,7 +13378,7 @@
       <c r="K646" s="4"/>
       <c r="L646" s="4"/>
     </row>
-    <row r="647" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -13428,7 +13392,7 @@
       <c r="K647" s="4"/>
       <c r="L647" s="4"/>
     </row>
-    <row r="648" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -13442,7 +13406,7 @@
       <c r="K648" s="4"/>
       <c r="L648" s="4"/>
     </row>
-    <row r="649" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -13456,7 +13420,7 @@
       <c r="K649" s="4"/>
       <c r="L649" s="4"/>
     </row>
-    <row r="650" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -13470,7 +13434,7 @@
       <c r="K650" s="4"/>
       <c r="L650" s="4"/>
     </row>
-    <row r="651" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -13484,7 +13448,7 @@
       <c r="K651" s="4"/>
       <c r="L651" s="4"/>
     </row>
-    <row r="652" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -13498,7 +13462,7 @@
       <c r="K652" s="4"/>
       <c r="L652" s="4"/>
     </row>
-    <row r="653" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -13512,7 +13476,7 @@
       <c r="K653" s="4"/>
       <c r="L653" s="4"/>
     </row>
-    <row r="654" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -13526,7 +13490,7 @@
       <c r="K654" s="4"/>
       <c r="L654" s="4"/>
     </row>
-    <row r="655" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -13540,7 +13504,7 @@
       <c r="K655" s="4"/>
       <c r="L655" s="4"/>
     </row>
-    <row r="656" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -13554,7 +13518,7 @@
       <c r="K656" s="4"/>
       <c r="L656" s="4"/>
     </row>
-    <row r="657" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -13568,7 +13532,7 @@
       <c r="K657" s="4"/>
       <c r="L657" s="4"/>
     </row>
-    <row r="658" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -13582,7 +13546,7 @@
       <c r="K658" s="4"/>
       <c r="L658" s="4"/>
     </row>
-    <row r="659" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -13596,7 +13560,7 @@
       <c r="K659" s="4"/>
       <c r="L659" s="4"/>
     </row>
-    <row r="660" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -13610,7 +13574,7 @@
       <c r="K660" s="4"/>
       <c r="L660" s="4"/>
     </row>
-    <row r="661" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -13624,7 +13588,7 @@
       <c r="K661" s="4"/>
       <c r="L661" s="4"/>
     </row>
-    <row r="662" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -13638,7 +13602,7 @@
       <c r="K662" s="4"/>
       <c r="L662" s="4"/>
     </row>
-    <row r="663" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -13652,7 +13616,7 @@
       <c r="K663" s="4"/>
       <c r="L663" s="4"/>
     </row>
-    <row r="664" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -13666,7 +13630,7 @@
       <c r="K664" s="4"/>
       <c r="L664" s="4"/>
     </row>
-    <row r="665" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -13680,7 +13644,7 @@
       <c r="K665" s="4"/>
       <c r="L665" s="4"/>
     </row>
-    <row r="666" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -13694,7 +13658,7 @@
       <c r="K666" s="4"/>
       <c r="L666" s="4"/>
     </row>
-    <row r="667" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -13708,7 +13672,7 @@
       <c r="K667" s="4"/>
       <c r="L667" s="4"/>
     </row>
-    <row r="668" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -13722,7 +13686,7 @@
       <c r="K668" s="4"/>
       <c r="L668" s="4"/>
     </row>
-    <row r="669" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -13736,7 +13700,7 @@
       <c r="K669" s="4"/>
       <c r="L669" s="4"/>
     </row>
-    <row r="670" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -13750,7 +13714,7 @@
       <c r="K670" s="4"/>
       <c r="L670" s="4"/>
     </row>
-    <row r="671" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -13764,7 +13728,7 @@
       <c r="K671" s="4"/>
       <c r="L671" s="4"/>
     </row>
-    <row r="672" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -13778,7 +13742,7 @@
       <c r="K672" s="4"/>
       <c r="L672" s="4"/>
     </row>
-    <row r="673" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -13792,7 +13756,7 @@
       <c r="K673" s="4"/>
       <c r="L673" s="4"/>
     </row>
-    <row r="674" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -13806,7 +13770,7 @@
       <c r="K674" s="4"/>
       <c r="L674" s="4"/>
     </row>
-    <row r="675" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -13820,7 +13784,7 @@
       <c r="K675" s="4"/>
       <c r="L675" s="4"/>
     </row>
-    <row r="676" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -13834,7 +13798,7 @@
       <c r="K676" s="4"/>
       <c r="L676" s="4"/>
     </row>
-    <row r="677" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -13848,7 +13812,7 @@
       <c r="K677" s="4"/>
       <c r="L677" s="4"/>
     </row>
-    <row r="678" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -13862,7 +13826,7 @@
       <c r="K678" s="4"/>
       <c r="L678" s="4"/>
     </row>
-    <row r="679" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -13876,7 +13840,7 @@
       <c r="K679" s="4"/>
       <c r="L679" s="4"/>
     </row>
-    <row r="680" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -13890,7 +13854,7 @@
       <c r="K680" s="4"/>
       <c r="L680" s="4"/>
     </row>
-    <row r="681" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -13904,7 +13868,7 @@
       <c r="K681" s="4"/>
       <c r="L681" s="4"/>
     </row>
-    <row r="682" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -13918,7 +13882,7 @@
       <c r="K682" s="4"/>
       <c r="L682" s="4"/>
     </row>
-    <row r="683" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -13932,7 +13896,7 @@
       <c r="K683" s="4"/>
       <c r="L683" s="4"/>
     </row>
-    <row r="684" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -13946,7 +13910,7 @@
       <c r="K684" s="4"/>
       <c r="L684" s="4"/>
     </row>
-    <row r="685" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -13960,7 +13924,7 @@
       <c r="K685" s="4"/>
       <c r="L685" s="4"/>
     </row>
-    <row r="686" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -13974,7 +13938,7 @@
       <c r="K686" s="4"/>
       <c r="L686" s="4"/>
     </row>
-    <row r="687" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -13988,7 +13952,7 @@
       <c r="K687" s="4"/>
       <c r="L687" s="4"/>
     </row>
-    <row r="688" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -14002,7 +13966,7 @@
       <c r="K688" s="4"/>
       <c r="L688" s="4"/>
     </row>
-    <row r="689" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -14016,7 +13980,7 @@
       <c r="K689" s="4"/>
       <c r="L689" s="4"/>
     </row>
-    <row r="690" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -14030,7 +13994,7 @@
       <c r="K690" s="4"/>
       <c r="L690" s="4"/>
     </row>
-    <row r="691" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -14044,7 +14008,7 @@
       <c r="K691" s="4"/>
       <c r="L691" s="4"/>
     </row>
-    <row r="692" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -14058,7 +14022,7 @@
       <c r="K692" s="4"/>
       <c r="L692" s="4"/>
     </row>
-    <row r="693" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -14072,7 +14036,7 @@
       <c r="K693" s="4"/>
       <c r="L693" s="4"/>
     </row>
-    <row r="694" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -14086,7 +14050,7 @@
       <c r="K694" s="4"/>
       <c r="L694" s="4"/>
     </row>
-    <row r="695" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -14100,7 +14064,7 @@
       <c r="K695" s="4"/>
       <c r="L695" s="4"/>
     </row>
-    <row r="696" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -14114,7 +14078,7 @@
       <c r="K696" s="4"/>
       <c r="L696" s="4"/>
     </row>
-    <row r="697" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -14128,7 +14092,7 @@
       <c r="K697" s="4"/>
       <c r="L697" s="4"/>
     </row>
-    <row r="698" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -14142,7 +14106,7 @@
       <c r="K698" s="4"/>
       <c r="L698" s="4"/>
     </row>
-    <row r="699" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -14156,7 +14120,7 @@
       <c r="K699" s="4"/>
       <c r="L699" s="4"/>
     </row>
-    <row r="700" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -14170,7 +14134,7 @@
       <c r="K700" s="4"/>
       <c r="L700" s="4"/>
     </row>
-    <row r="701" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -14184,7 +14148,7 @@
       <c r="K701" s="4"/>
       <c r="L701" s="4"/>
     </row>
-    <row r="702" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -14198,7 +14162,7 @@
       <c r="K702" s="4"/>
       <c r="L702" s="4"/>
     </row>
-    <row r="703" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -14212,7 +14176,7 @@
       <c r="K703" s="4"/>
       <c r="L703" s="4"/>
     </row>
-    <row r="704" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -14226,7 +14190,7 @@
       <c r="K704" s="4"/>
       <c r="L704" s="4"/>
     </row>
-    <row r="705" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -14240,7 +14204,7 @@
       <c r="K705" s="4"/>
       <c r="L705" s="4"/>
     </row>
-    <row r="706" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -14254,7 +14218,7 @@
       <c r="K706" s="4"/>
       <c r="L706" s="4"/>
     </row>
-    <row r="707" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -14268,7 +14232,7 @@
       <c r="K707" s="4"/>
       <c r="L707" s="4"/>
     </row>
-    <row r="708" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -14282,7 +14246,7 @@
       <c r="K708" s="4"/>
       <c r="L708" s="4"/>
     </row>
-    <row r="709" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -14296,7 +14260,7 @@
       <c r="K709" s="4"/>
       <c r="L709" s="4"/>
     </row>
-    <row r="710" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -14310,7 +14274,7 @@
       <c r="K710" s="4"/>
       <c r="L710" s="4"/>
     </row>
-    <row r="711" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -14324,7 +14288,7 @@
       <c r="K711" s="4"/>
       <c r="L711" s="4"/>
     </row>
-    <row r="712" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -14338,7 +14302,7 @@
       <c r="K712" s="4"/>
       <c r="L712" s="4"/>
     </row>
-    <row r="713" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -14352,7 +14316,7 @@
       <c r="K713" s="4"/>
       <c r="L713" s="4"/>
     </row>
-    <row r="714" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -14366,7 +14330,7 @@
       <c r="K714" s="4"/>
       <c r="L714" s="4"/>
     </row>
-    <row r="715" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -14380,7 +14344,7 @@
       <c r="K715" s="4"/>
       <c r="L715" s="4"/>
     </row>
-    <row r="716" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -14394,7 +14358,7 @@
       <c r="K716" s="4"/>
       <c r="L716" s="4"/>
     </row>
-    <row r="717" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -14408,7 +14372,7 @@
       <c r="K717" s="4"/>
       <c r="L717" s="4"/>
     </row>
-    <row r="718" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -14422,7 +14386,7 @@
       <c r="K718" s="4"/>
       <c r="L718" s="4"/>
     </row>
-    <row r="719" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -14436,7 +14400,7 @@
       <c r="K719" s="4"/>
       <c r="L719" s="4"/>
     </row>
-    <row r="720" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -14450,7 +14414,7 @@
       <c r="K720" s="4"/>
       <c r="L720" s="4"/>
     </row>
-    <row r="721" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -14464,7 +14428,7 @@
       <c r="K721" s="4"/>
       <c r="L721" s="4"/>
     </row>
-    <row r="722" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -14478,7 +14442,7 @@
       <c r="K722" s="4"/>
       <c r="L722" s="4"/>
     </row>
-    <row r="723" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -14492,7 +14456,7 @@
       <c r="K723" s="4"/>
       <c r="L723" s="4"/>
     </row>
-    <row r="724" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -14506,7 +14470,7 @@
       <c r="K724" s="4"/>
       <c r="L724" s="4"/>
     </row>
-    <row r="725" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -14520,7 +14484,7 @@
       <c r="K725" s="4"/>
       <c r="L725" s="4"/>
     </row>
-    <row r="726" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -14534,7 +14498,7 @@
       <c r="K726" s="4"/>
       <c r="L726" s="4"/>
     </row>
-    <row r="727" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -14548,7 +14512,7 @@
       <c r="K727" s="4"/>
       <c r="L727" s="4"/>
     </row>
-    <row r="728" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -14562,7 +14526,7 @@
       <c r="K728" s="4"/>
       <c r="L728" s="4"/>
     </row>
-    <row r="729" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -14576,7 +14540,7 @@
       <c r="K729" s="4"/>
       <c r="L729" s="4"/>
     </row>
-    <row r="730" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -14590,7 +14554,7 @@
       <c r="K730" s="4"/>
       <c r="L730" s="4"/>
     </row>
-    <row r="731" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -14604,7 +14568,7 @@
       <c r="K731" s="4"/>
       <c r="L731" s="4"/>
     </row>
-    <row r="732" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -14618,7 +14582,7 @@
       <c r="K732" s="4"/>
       <c r="L732" s="4"/>
     </row>
-    <row r="733" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -14632,7 +14596,7 @@
       <c r="K733" s="4"/>
       <c r="L733" s="4"/>
     </row>
-    <row r="734" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -14646,7 +14610,7 @@
       <c r="K734" s="4"/>
       <c r="L734" s="4"/>
     </row>
-    <row r="735" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -14660,7 +14624,7 @@
       <c r="K735" s="4"/>
       <c r="L735" s="4"/>
     </row>
-    <row r="736" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -14674,7 +14638,7 @@
       <c r="K736" s="4"/>
       <c r="L736" s="4"/>
     </row>
-    <row r="737" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -14688,7 +14652,7 @@
       <c r="K737" s="4"/>
       <c r="L737" s="4"/>
     </row>
-    <row r="738" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -14702,7 +14666,7 @@
       <c r="K738" s="4"/>
       <c r="L738" s="4"/>
     </row>
-    <row r="739" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -14716,7 +14680,7 @@
       <c r="K739" s="4"/>
       <c r="L739" s="4"/>
     </row>
-    <row r="740" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -14730,7 +14694,7 @@
       <c r="K740" s="4"/>
       <c r="L740" s="4"/>
     </row>
-    <row r="741" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -14744,7 +14708,7 @@
       <c r="K741" s="4"/>
       <c r="L741" s="4"/>
     </row>
-    <row r="742" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -14758,7 +14722,7 @@
       <c r="K742" s="4"/>
       <c r="L742" s="4"/>
     </row>
-    <row r="743" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -14772,7 +14736,7 @@
       <c r="K743" s="4"/>
       <c r="L743" s="4"/>
     </row>
-    <row r="744" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -14786,7 +14750,7 @@
       <c r="K744" s="4"/>
       <c r="L744" s="4"/>
     </row>
-    <row r="745" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -14800,7 +14764,7 @@
       <c r="K745" s="4"/>
       <c r="L745" s="4"/>
     </row>
-    <row r="746" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -14814,7 +14778,7 @@
       <c r="K746" s="4"/>
       <c r="L746" s="4"/>
     </row>
-    <row r="747" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -14828,7 +14792,7 @@
       <c r="K747" s="4"/>
       <c r="L747" s="4"/>
     </row>
-    <row r="748" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -14842,7 +14806,7 @@
       <c r="K748" s="4"/>
       <c r="L748" s="4"/>
     </row>
-    <row r="749" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -14856,7 +14820,7 @@
       <c r="K749" s="4"/>
       <c r="L749" s="4"/>
     </row>
-    <row r="750" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -14870,7 +14834,7 @@
       <c r="K750" s="4"/>
       <c r="L750" s="4"/>
     </row>
-    <row r="751" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -14884,7 +14848,7 @@
       <c r="K751" s="4"/>
       <c r="L751" s="4"/>
     </row>
-    <row r="752" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -14898,7 +14862,7 @@
       <c r="K752" s="4"/>
       <c r="L752" s="4"/>
     </row>
-    <row r="753" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -14912,7 +14876,7 @@
       <c r="K753" s="4"/>
       <c r="L753" s="4"/>
     </row>
-    <row r="754" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -14926,7 +14890,7 @@
       <c r="K754" s="4"/>
       <c r="L754" s="4"/>
     </row>
-    <row r="755" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -14940,7 +14904,7 @@
       <c r="K755" s="4"/>
       <c r="L755" s="4"/>
     </row>
-    <row r="756" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -14954,7 +14918,7 @@
       <c r="K756" s="4"/>
       <c r="L756" s="4"/>
     </row>
-    <row r="757" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -14968,7 +14932,7 @@
       <c r="K757" s="4"/>
       <c r="L757" s="4"/>
     </row>
-    <row r="758" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -14982,7 +14946,7 @@
       <c r="K758" s="4"/>
       <c r="L758" s="4"/>
     </row>
-    <row r="759" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -14996,7 +14960,7 @@
       <c r="K759" s="4"/>
       <c r="L759" s="4"/>
     </row>
-    <row r="760" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -15010,7 +14974,7 @@
       <c r="K760" s="4"/>
       <c r="L760" s="4"/>
     </row>
-    <row r="761" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -15024,7 +14988,7 @@
       <c r="K761" s="4"/>
       <c r="L761" s="4"/>
     </row>
-    <row r="762" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -15038,7 +15002,7 @@
       <c r="K762" s="4"/>
       <c r="L762" s="4"/>
     </row>
-    <row r="763" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -15052,7 +15016,7 @@
       <c r="K763" s="4"/>
       <c r="L763" s="4"/>
     </row>
-    <row r="764" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -15066,7 +15030,7 @@
       <c r="K764" s="4"/>
       <c r="L764" s="4"/>
     </row>
-    <row r="765" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -15080,7 +15044,7 @@
       <c r="K765" s="4"/>
       <c r="L765" s="4"/>
     </row>
-    <row r="766" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -15094,7 +15058,7 @@
       <c r="K766" s="4"/>
       <c r="L766" s="4"/>
     </row>
-    <row r="767" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -15108,7 +15072,7 @@
       <c r="K767" s="4"/>
       <c r="L767" s="4"/>
     </row>
-    <row r="768" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -15122,7 +15086,7 @@
       <c r="K768" s="4"/>
       <c r="L768" s="4"/>
     </row>
-    <row r="769" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -15136,7 +15100,7 @@
       <c r="K769" s="4"/>
       <c r="L769" s="4"/>
     </row>
-    <row r="770" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -15150,7 +15114,7 @@
       <c r="K770" s="4"/>
       <c r="L770" s="4"/>
     </row>
-    <row r="771" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -15164,7 +15128,7 @@
       <c r="K771" s="4"/>
       <c r="L771" s="4"/>
     </row>
-    <row r="772" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -15178,7 +15142,7 @@
       <c r="K772" s="4"/>
       <c r="L772" s="4"/>
     </row>
-    <row r="773" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -15192,7 +15156,7 @@
       <c r="K773" s="4"/>
       <c r="L773" s="4"/>
     </row>
-    <row r="774" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -15206,7 +15170,7 @@
       <c r="K774" s="4"/>
       <c r="L774" s="4"/>
     </row>
-    <row r="775" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -15220,7 +15184,7 @@
       <c r="K775" s="4"/>
       <c r="L775" s="4"/>
     </row>
-    <row r="776" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -15234,7 +15198,7 @@
       <c r="K776" s="4"/>
       <c r="L776" s="4"/>
     </row>
-    <row r="777" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -15248,7 +15212,7 @@
       <c r="K777" s="4"/>
       <c r="L777" s="4"/>
     </row>
-    <row r="778" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -15262,7 +15226,7 @@
       <c r="K778" s="4"/>
       <c r="L778" s="4"/>
     </row>
-    <row r="779" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -15276,7 +15240,7 @@
       <c r="K779" s="4"/>
       <c r="L779" s="4"/>
     </row>
-    <row r="780" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -15290,7 +15254,7 @@
       <c r="K780" s="4"/>
       <c r="L780" s="4"/>
     </row>
-    <row r="781" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -15304,7 +15268,7 @@
       <c r="K781" s="4"/>
       <c r="L781" s="4"/>
     </row>
-    <row r="782" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -15318,7 +15282,7 @@
       <c r="K782" s="4"/>
       <c r="L782" s="4"/>
     </row>
-    <row r="783" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -15332,7 +15296,7 @@
       <c r="K783" s="4"/>
       <c r="L783" s="4"/>
     </row>
-    <row r="784" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -15346,7 +15310,7 @@
       <c r="K784" s="4"/>
       <c r="L784" s="4"/>
     </row>
-    <row r="785" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -15360,7 +15324,7 @@
       <c r="K785" s="4"/>
       <c r="L785" s="4"/>
     </row>
-    <row r="786" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -15374,7 +15338,7 @@
       <c r="K786" s="4"/>
       <c r="L786" s="4"/>
     </row>
-    <row r="787" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -15388,7 +15352,7 @@
       <c r="K787" s="4"/>
       <c r="L787" s="4"/>
     </row>
-    <row r="788" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -15402,7 +15366,7 @@
       <c r="K788" s="4"/>
       <c r="L788" s="4"/>
     </row>
-    <row r="789" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -15416,7 +15380,7 @@
       <c r="K789" s="4"/>
       <c r="L789" s="4"/>
     </row>
-    <row r="790" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -15430,7 +15394,7 @@
       <c r="K790" s="4"/>
       <c r="L790" s="4"/>
     </row>
-    <row r="791" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -15444,7 +15408,7 @@
       <c r="K791" s="4"/>
       <c r="L791" s="4"/>
     </row>
-    <row r="792" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -15458,7 +15422,7 @@
       <c r="K792" s="4"/>
       <c r="L792" s="4"/>
     </row>
-    <row r="793" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -15472,7 +15436,7 @@
       <c r="K793" s="4"/>
       <c r="L793" s="4"/>
     </row>
-    <row r="794" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -15486,7 +15450,7 @@
       <c r="K794" s="4"/>
       <c r="L794" s="4"/>
     </row>
-    <row r="795" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -15500,7 +15464,7 @@
       <c r="K795" s="4"/>
       <c r="L795" s="4"/>
     </row>
-    <row r="796" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -15514,7 +15478,7 @@
       <c r="K796" s="4"/>
       <c r="L796" s="4"/>
     </row>
-    <row r="797" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -15528,7 +15492,7 @@
       <c r="K797" s="4"/>
       <c r="L797" s="4"/>
     </row>
-    <row r="798" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -15542,7 +15506,7 @@
       <c r="K798" s="4"/>
       <c r="L798" s="4"/>
     </row>
-    <row r="799" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -15556,7 +15520,7 @@
       <c r="K799" s="4"/>
       <c r="L799" s="4"/>
     </row>
-    <row r="800" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -15570,7 +15534,7 @@
       <c r="K800" s="4"/>
       <c r="L800" s="4"/>
     </row>
-    <row r="801" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -15584,7 +15548,7 @@
       <c r="K801" s="4"/>
       <c r="L801" s="4"/>
     </row>
-    <row r="802" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -15598,7 +15562,7 @@
       <c r="K802" s="4"/>
       <c r="L802" s="4"/>
     </row>
-    <row r="803" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -15612,7 +15576,7 @@
       <c r="K803" s="4"/>
       <c r="L803" s="4"/>
     </row>
-    <row r="804" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -15626,7 +15590,7 @@
       <c r="K804" s="4"/>
       <c r="L804" s="4"/>
     </row>
-    <row r="805" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -15640,7 +15604,7 @@
       <c r="K805" s="4"/>
       <c r="L805" s="4"/>
     </row>
-    <row r="806" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -15654,7 +15618,7 @@
       <c r="K806" s="4"/>
       <c r="L806" s="4"/>
     </row>
-    <row r="807" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -15668,7 +15632,7 @@
       <c r="K807" s="4"/>
       <c r="L807" s="4"/>
     </row>
-    <row r="808" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -15682,7 +15646,7 @@
       <c r="K808" s="4"/>
       <c r="L808" s="4"/>
     </row>
-    <row r="809" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -15696,7 +15660,7 @@
       <c r="K809" s="4"/>
       <c r="L809" s="4"/>
     </row>
-    <row r="810" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -15710,7 +15674,7 @@
       <c r="K810" s="4"/>
       <c r="L810" s="4"/>
     </row>
-    <row r="811" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -15724,7 +15688,7 @@
       <c r="K811" s="4"/>
       <c r="L811" s="4"/>
     </row>
-    <row r="812" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -15738,7 +15702,7 @@
       <c r="K812" s="4"/>
       <c r="L812" s="4"/>
     </row>
-    <row r="813" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -15752,7 +15716,7 @@
       <c r="K813" s="4"/>
       <c r="L813" s="4"/>
     </row>
-    <row r="814" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -15766,7 +15730,7 @@
       <c r="K814" s="4"/>
       <c r="L814" s="4"/>
     </row>
-    <row r="815" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -15780,7 +15744,7 @@
       <c r="K815" s="4"/>
       <c r="L815" s="4"/>
     </row>
-    <row r="816" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -15794,7 +15758,7 @@
       <c r="K816" s="4"/>
       <c r="L816" s="4"/>
     </row>
-    <row r="817" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -15808,7 +15772,7 @@
       <c r="K817" s="4"/>
       <c r="L817" s="4"/>
     </row>
-    <row r="818" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -15822,7 +15786,7 @@
       <c r="K818" s="4"/>
       <c r="L818" s="4"/>
     </row>
-    <row r="819" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -15836,7 +15800,7 @@
       <c r="K819" s="4"/>
       <c r="L819" s="4"/>
     </row>
-    <row r="820" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -15850,7 +15814,7 @@
       <c r="K820" s="4"/>
       <c r="L820" s="4"/>
     </row>
-    <row r="821" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -15864,7 +15828,7 @@
       <c r="K821" s="4"/>
       <c r="L821" s="4"/>
     </row>
-    <row r="822" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -15878,7 +15842,7 @@
       <c r="K822" s="4"/>
       <c r="L822" s="4"/>
     </row>
-    <row r="823" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -15892,7 +15856,7 @@
       <c r="K823" s="4"/>
       <c r="L823" s="4"/>
     </row>
-    <row r="824" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -15906,7 +15870,7 @@
       <c r="K824" s="4"/>
       <c r="L824" s="4"/>
     </row>
-    <row r="825" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -15920,7 +15884,7 @@
       <c r="K825" s="4"/>
       <c r="L825" s="4"/>
     </row>
-    <row r="826" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -15934,7 +15898,7 @@
       <c r="K826" s="4"/>
       <c r="L826" s="4"/>
     </row>
-    <row r="827" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -15948,7 +15912,7 @@
       <c r="K827" s="4"/>
       <c r="L827" s="4"/>
     </row>
-    <row r="828" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -15962,7 +15926,7 @@
       <c r="K828" s="4"/>
       <c r="L828" s="4"/>
     </row>
-    <row r="829" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -15976,7 +15940,7 @@
       <c r="K829" s="4"/>
       <c r="L829" s="4"/>
     </row>
-    <row r="830" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -15990,7 +15954,7 @@
       <c r="K830" s="4"/>
       <c r="L830" s="4"/>
     </row>
-    <row r="831" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -16004,7 +15968,7 @@
       <c r="K831" s="4"/>
       <c r="L831" s="4"/>
     </row>
-    <row r="832" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -16018,7 +15982,7 @@
       <c r="K832" s="4"/>
       <c r="L832" s="4"/>
     </row>
-    <row r="833" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -16032,7 +15996,7 @@
       <c r="K833" s="4"/>
       <c r="L833" s="4"/>
     </row>
-    <row r="834" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -16046,7 +16010,7 @@
       <c r="K834" s="4"/>
       <c r="L834" s="4"/>
     </row>
-    <row r="835" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -16060,7 +16024,7 @@
       <c r="K835" s="4"/>
       <c r="L835" s="4"/>
     </row>
-    <row r="836" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -16074,7 +16038,7 @@
       <c r="K836" s="4"/>
       <c r="L836" s="4"/>
     </row>
-    <row r="837" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -16088,7 +16052,7 @@
       <c r="K837" s="4"/>
       <c r="L837" s="4"/>
     </row>
-    <row r="838" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -16102,7 +16066,7 @@
       <c r="K838" s="4"/>
       <c r="L838" s="4"/>
     </row>
-    <row r="839" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -16116,7 +16080,7 @@
       <c r="K839" s="4"/>
       <c r="L839" s="4"/>
     </row>
-    <row r="840" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -16130,7 +16094,7 @@
       <c r="K840" s="4"/>
       <c r="L840" s="4"/>
     </row>
-    <row r="841" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -16144,7 +16108,7 @@
       <c r="K841" s="4"/>
       <c r="L841" s="4"/>
     </row>
-    <row r="842" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -16158,7 +16122,7 @@
       <c r="K842" s="4"/>
       <c r="L842" s="4"/>
     </row>
-    <row r="843" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -16172,7 +16136,7 @@
       <c r="K843" s="4"/>
       <c r="L843" s="4"/>
     </row>
-    <row r="844" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -16186,7 +16150,7 @@
       <c r="K844" s="4"/>
       <c r="L844" s="4"/>
     </row>
-    <row r="845" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -16200,7 +16164,7 @@
       <c r="K845" s="4"/>
       <c r="L845" s="4"/>
     </row>
-    <row r="846" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -16214,7 +16178,7 @@
       <c r="K846" s="4"/>
       <c r="L846" s="4"/>
     </row>
-    <row r="847" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -16228,7 +16192,7 @@
       <c r="K847" s="4"/>
       <c r="L847" s="4"/>
     </row>
-    <row r="848" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -16242,7 +16206,7 @@
       <c r="K848" s="4"/>
       <c r="L848" s="4"/>
     </row>
-    <row r="849" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -16256,7 +16220,7 @@
       <c r="K849" s="4"/>
       <c r="L849" s="4"/>
     </row>
-    <row r="850" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -16270,7 +16234,7 @@
       <c r="K850" s="4"/>
       <c r="L850" s="4"/>
     </row>
-    <row r="851" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -16284,7 +16248,7 @@
       <c r="K851" s="4"/>
       <c r="L851" s="4"/>
     </row>
-    <row r="852" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -16298,7 +16262,7 @@
       <c r="K852" s="4"/>
       <c r="L852" s="4"/>
     </row>
-    <row r="853" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -16312,7 +16276,7 @@
       <c r="K853" s="4"/>
       <c r="L853" s="4"/>
     </row>
-    <row r="854" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -16326,7 +16290,7 @@
       <c r="K854" s="4"/>
       <c r="L854" s="4"/>
     </row>
-    <row r="855" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -16340,7 +16304,7 @@
       <c r="K855" s="4"/>
       <c r="L855" s="4"/>
     </row>
-    <row r="856" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -16354,7 +16318,7 @@
       <c r="K856" s="4"/>
       <c r="L856" s="4"/>
     </row>
-    <row r="857" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -16368,7 +16332,7 @@
       <c r="K857" s="4"/>
       <c r="L857" s="4"/>
     </row>
-    <row r="858" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -16382,7 +16346,7 @@
       <c r="K858" s="4"/>
       <c r="L858" s="4"/>
     </row>
-    <row r="859" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -16396,7 +16360,7 @@
       <c r="K859" s="4"/>
       <c r="L859" s="4"/>
     </row>
-    <row r="860" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -16410,7 +16374,7 @@
       <c r="K860" s="4"/>
       <c r="L860" s="4"/>
     </row>
-    <row r="861" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -16424,7 +16388,7 @@
       <c r="K861" s="4"/>
       <c r="L861" s="4"/>
     </row>
-    <row r="862" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -16438,7 +16402,7 @@
       <c r="K862" s="4"/>
       <c r="L862" s="4"/>
     </row>
-    <row r="863" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -16452,7 +16416,7 @@
       <c r="K863" s="4"/>
       <c r="L863" s="4"/>
     </row>
-    <row r="864" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -16466,7 +16430,7 @@
       <c r="K864" s="4"/>
       <c r="L864" s="4"/>
     </row>
-    <row r="865" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -16480,7 +16444,7 @@
       <c r="K865" s="4"/>
       <c r="L865" s="4"/>
     </row>
-    <row r="866" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -16494,7 +16458,7 @@
       <c r="K866" s="4"/>
       <c r="L866" s="4"/>
     </row>
-    <row r="867" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -16508,7 +16472,7 @@
       <c r="K867" s="4"/>
       <c r="L867" s="4"/>
     </row>
-    <row r="868" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -16522,7 +16486,7 @@
       <c r="K868" s="4"/>
       <c r="L868" s="4"/>
     </row>
-    <row r="869" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -16536,7 +16500,7 @@
       <c r="K869" s="4"/>
       <c r="L869" s="4"/>
     </row>
-    <row r="870" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -16550,7 +16514,7 @@
       <c r="K870" s="4"/>
       <c r="L870" s="4"/>
     </row>
-    <row r="871" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -16564,7 +16528,7 @@
       <c r="K871" s="4"/>
       <c r="L871" s="4"/>
     </row>
-    <row r="872" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -16578,7 +16542,7 @@
       <c r="K872" s="4"/>
       <c r="L872" s="4"/>
     </row>
-    <row r="873" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -16592,7 +16556,7 @@
       <c r="K873" s="4"/>
       <c r="L873" s="4"/>
     </row>
-    <row r="874" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -16606,7 +16570,7 @@
       <c r="K874" s="4"/>
       <c r="L874" s="4"/>
     </row>
-    <row r="875" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -16620,7 +16584,7 @@
       <c r="K875" s="4"/>
       <c r="L875" s="4"/>
     </row>
-    <row r="876" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -16634,7 +16598,7 @@
       <c r="K876" s="4"/>
       <c r="L876" s="4"/>
     </row>
-    <row r="877" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -16648,7 +16612,7 @@
       <c r="K877" s="4"/>
       <c r="L877" s="4"/>
     </row>
-    <row r="878" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -16662,7 +16626,7 @@
       <c r="K878" s="4"/>
       <c r="L878" s="4"/>
     </row>
-    <row r="879" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -16676,7 +16640,7 @@
       <c r="K879" s="4"/>
       <c r="L879" s="4"/>
     </row>
-    <row r="880" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -16690,7 +16654,7 @@
       <c r="K880" s="4"/>
       <c r="L880" s="4"/>
     </row>
-    <row r="881" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -16704,7 +16668,7 @@
       <c r="K881" s="4"/>
       <c r="L881" s="4"/>
     </row>
-    <row r="882" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -16718,7 +16682,7 @@
       <c r="K882" s="4"/>
       <c r="L882" s="4"/>
     </row>
-    <row r="883" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -16732,7 +16696,7 @@
       <c r="K883" s="4"/>
       <c r="L883" s="4"/>
     </row>
-    <row r="884" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -16746,7 +16710,7 @@
       <c r="K884" s="4"/>
       <c r="L884" s="4"/>
     </row>
-    <row r="885" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -16760,7 +16724,7 @@
       <c r="K885" s="4"/>
       <c r="L885" s="4"/>
     </row>
-    <row r="886" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -16774,7 +16738,7 @@
       <c r="K886" s="4"/>
       <c r="L886" s="4"/>
     </row>
-    <row r="887" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -16788,7 +16752,7 @@
       <c r="K887" s="4"/>
       <c r="L887" s="4"/>
     </row>
-    <row r="888" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -16802,7 +16766,7 @@
       <c r="K888" s="4"/>
       <c r="L888" s="4"/>
     </row>
-    <row r="889" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -16816,7 +16780,7 @@
       <c r="K889" s="4"/>
       <c r="L889" s="4"/>
     </row>
-    <row r="890" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -16830,7 +16794,7 @@
       <c r="K890" s="4"/>
       <c r="L890" s="4"/>
     </row>
-    <row r="891" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -16844,7 +16808,7 @@
       <c r="K891" s="4"/>
       <c r="L891" s="4"/>
     </row>
-    <row r="892" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -16858,7 +16822,7 @@
       <c r="K892" s="4"/>
       <c r="L892" s="4"/>
     </row>
-    <row r="893" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -16872,7 +16836,7 @@
       <c r="K893" s="4"/>
       <c r="L893" s="4"/>
     </row>
-    <row r="894" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -16886,7 +16850,7 @@
       <c r="K894" s="4"/>
       <c r="L894" s="4"/>
     </row>
-    <row r="895" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -16900,7 +16864,7 @@
       <c r="K895" s="4"/>
       <c r="L895" s="4"/>
     </row>
-    <row r="896" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -16914,7 +16878,7 @@
       <c r="K896" s="4"/>
       <c r="L896" s="4"/>
     </row>
-    <row r="897" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -16928,7 +16892,7 @@
       <c r="K897" s="4"/>
       <c r="L897" s="4"/>
     </row>
-    <row r="898" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -16942,7 +16906,7 @@
       <c r="K898" s="4"/>
       <c r="L898" s="4"/>
     </row>
-    <row r="899" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -16956,7 +16920,7 @@
       <c r="K899" s="4"/>
       <c r="L899" s="4"/>
     </row>
-    <row r="900" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -16970,7 +16934,7 @@
       <c r="K900" s="4"/>
       <c r="L900" s="4"/>
     </row>
-    <row r="901" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -16984,7 +16948,7 @@
       <c r="K901" s="4"/>
       <c r="L901" s="4"/>
     </row>
-    <row r="902" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -16998,7 +16962,7 @@
       <c r="K902" s="4"/>
       <c r="L902" s="4"/>
     </row>
-    <row r="903" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -17012,7 +16976,7 @@
       <c r="K903" s="4"/>
       <c r="L903" s="4"/>
     </row>
-    <row r="904" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -17026,7 +16990,7 @@
       <c r="K904" s="4"/>
       <c r="L904" s="4"/>
     </row>
-    <row r="905" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -17040,7 +17004,7 @@
       <c r="K905" s="4"/>
       <c r="L905" s="4"/>
     </row>
-    <row r="906" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -17054,7 +17018,7 @@
       <c r="K906" s="4"/>
       <c r="L906" s="4"/>
     </row>
-    <row r="907" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -17068,7 +17032,7 @@
       <c r="K907" s="4"/>
       <c r="L907" s="4"/>
     </row>
-    <row r="908" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -17082,7 +17046,7 @@
       <c r="K908" s="4"/>
       <c r="L908" s="4"/>
     </row>
-    <row r="909" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -17096,7 +17060,7 @@
       <c r="K909" s="4"/>
       <c r="L909" s="4"/>
     </row>
-    <row r="910" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -17110,7 +17074,7 @@
       <c r="K910" s="4"/>
       <c r="L910" s="4"/>
     </row>
-    <row r="911" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -17124,7 +17088,7 @@
       <c r="K911" s="4"/>
       <c r="L911" s="4"/>
     </row>
-    <row r="912" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -17138,7 +17102,7 @@
       <c r="K912" s="4"/>
       <c r="L912" s="4"/>
     </row>
-    <row r="913" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -17152,7 +17116,7 @@
       <c r="K913" s="4"/>
       <c r="L913" s="4"/>
     </row>
-    <row r="914" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -17166,7 +17130,7 @@
       <c r="K914" s="4"/>
       <c r="L914" s="4"/>
     </row>
-    <row r="915" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -17180,7 +17144,7 @@
       <c r="K915" s="4"/>
       <c r="L915" s="4"/>
     </row>
-    <row r="916" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -17194,7 +17158,7 @@
       <c r="K916" s="4"/>
       <c r="L916" s="4"/>
     </row>
-    <row r="917" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -17208,7 +17172,7 @@
       <c r="K917" s="4"/>
       <c r="L917" s="4"/>
     </row>
-    <row r="918" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -17222,7 +17186,7 @@
       <c r="K918" s="4"/>
       <c r="L918" s="4"/>
     </row>
-    <row r="919" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -17236,7 +17200,7 @@
       <c r="K919" s="4"/>
       <c r="L919" s="4"/>
     </row>
-    <row r="920" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -17250,7 +17214,7 @@
       <c r="K920" s="4"/>
       <c r="L920" s="4"/>
     </row>
-    <row r="921" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -17264,7 +17228,7 @@
       <c r="K921" s="4"/>
       <c r="L921" s="4"/>
     </row>
-    <row r="922" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -17278,7 +17242,7 @@
       <c r="K922" s="4"/>
       <c r="L922" s="4"/>
     </row>
-    <row r="923" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -17292,7 +17256,7 @@
       <c r="K923" s="4"/>
       <c r="L923" s="4"/>
     </row>
-    <row r="924" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -17306,7 +17270,7 @@
       <c r="K924" s="4"/>
       <c r="L924" s="4"/>
     </row>
-    <row r="925" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -17320,7 +17284,7 @@
       <c r="K925" s="4"/>
       <c r="L925" s="4"/>
     </row>
-    <row r="926" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -17334,7 +17298,7 @@
       <c r="K926" s="4"/>
       <c r="L926" s="4"/>
     </row>
-    <row r="927" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -17348,7 +17312,7 @@
       <c r="K927" s="4"/>
       <c r="L927" s="4"/>
     </row>
-    <row r="928" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -17362,7 +17326,7 @@
       <c r="K928" s="4"/>
       <c r="L928" s="4"/>
     </row>
-    <row r="929" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -17376,7 +17340,7 @@
       <c r="K929" s="4"/>
       <c r="L929" s="4"/>
     </row>
-    <row r="930" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -17390,7 +17354,7 @@
       <c r="K930" s="4"/>
       <c r="L930" s="4"/>
     </row>
-    <row r="931" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -17404,7 +17368,7 @@
       <c r="K931" s="4"/>
       <c r="L931" s="4"/>
     </row>
-    <row r="932" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -17418,7 +17382,7 @@
       <c r="K932" s="4"/>
       <c r="L932" s="4"/>
     </row>
-    <row r="933" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -17432,7 +17396,7 @@
       <c r="K933" s="4"/>
       <c r="L933" s="4"/>
     </row>
-    <row r="934" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -17446,7 +17410,7 @@
       <c r="K934" s="4"/>
       <c r="L934" s="4"/>
     </row>
-    <row r="935" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -17460,7 +17424,7 @@
       <c r="K935" s="4"/>
       <c r="L935" s="4"/>
     </row>
-    <row r="936" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -17474,7 +17438,7 @@
       <c r="K936" s="4"/>
       <c r="L936" s="4"/>
     </row>
-    <row r="937" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -17488,7 +17452,7 @@
       <c r="K937" s="4"/>
       <c r="L937" s="4"/>
     </row>
-    <row r="938" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -17502,7 +17466,7 @@
       <c r="K938" s="4"/>
       <c r="L938" s="4"/>
     </row>
-    <row r="939" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -17516,7 +17480,7 @@
       <c r="K939" s="4"/>
       <c r="L939" s="4"/>
     </row>
-    <row r="940" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -17530,7 +17494,7 @@
       <c r="K940" s="4"/>
       <c r="L940" s="4"/>
     </row>
-    <row r="941" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -17544,7 +17508,7 @@
       <c r="K941" s="4"/>
       <c r="L941" s="4"/>
     </row>
-    <row r="942" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -17558,7 +17522,7 @@
       <c r="K942" s="4"/>
       <c r="L942" s="4"/>
     </row>
-    <row r="943" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -17572,7 +17536,7 @@
       <c r="K943" s="4"/>
       <c r="L943" s="4"/>
     </row>
-    <row r="944" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -17586,7 +17550,7 @@
       <c r="K944" s="4"/>
       <c r="L944" s="4"/>
     </row>
-    <row r="945" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -17600,7 +17564,7 @@
       <c r="K945" s="4"/>
       <c r="L945" s="4"/>
     </row>
-    <row r="946" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -17614,7 +17578,7 @@
       <c r="K946" s="4"/>
       <c r="L946" s="4"/>
     </row>
-    <row r="947" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -17628,7 +17592,7 @@
       <c r="K947" s="4"/>
       <c r="L947" s="4"/>
     </row>
-    <row r="948" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -17642,7 +17606,7 @@
       <c r="K948" s="4"/>
       <c r="L948" s="4"/>
     </row>
-    <row r="949" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -17656,7 +17620,7 @@
       <c r="K949" s="4"/>
       <c r="L949" s="4"/>
     </row>
-    <row r="950" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -17670,7 +17634,7 @@
       <c r="K950" s="4"/>
       <c r="L950" s="4"/>
     </row>
-    <row r="951" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -17684,7 +17648,7 @@
       <c r="K951" s="4"/>
       <c r="L951" s="4"/>
     </row>
-    <row r="952" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -17698,7 +17662,7 @@
       <c r="K952" s="4"/>
       <c r="L952" s="4"/>
     </row>
-    <row r="953" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -17712,7 +17676,7 @@
       <c r="K953" s="4"/>
       <c r="L953" s="4"/>
     </row>
-    <row r="954" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -17726,7 +17690,7 @@
       <c r="K954" s="4"/>
       <c r="L954" s="4"/>
     </row>
-    <row r="955" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -17740,7 +17704,7 @@
       <c r="K955" s="4"/>
       <c r="L955" s="4"/>
     </row>
-    <row r="956" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -17754,7 +17718,7 @@
       <c r="K956" s="4"/>
       <c r="L956" s="4"/>
     </row>
-    <row r="957" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -17768,7 +17732,7 @@
       <c r="K957" s="4"/>
       <c r="L957" s="4"/>
     </row>
-    <row r="958" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -17782,7 +17746,7 @@
       <c r="K958" s="4"/>
       <c r="L958" s="4"/>
     </row>
-    <row r="959" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -17796,7 +17760,7 @@
       <c r="K959" s="4"/>
       <c r="L959" s="4"/>
     </row>
-    <row r="960" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -17810,7 +17774,7 @@
       <c r="K960" s="4"/>
       <c r="L960" s="4"/>
     </row>
-    <row r="961" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -17824,7 +17788,7 @@
       <c r="K961" s="4"/>
       <c r="L961" s="4"/>
     </row>
-    <row r="962" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -17838,7 +17802,7 @@
       <c r="K962" s="4"/>
       <c r="L962" s="4"/>
     </row>
-    <row r="963" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -17852,7 +17816,7 @@
       <c r="K963" s="4"/>
       <c r="L963" s="4"/>
     </row>
-    <row r="964" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -17866,7 +17830,7 @@
       <c r="K964" s="4"/>
       <c r="L964" s="4"/>
     </row>
-    <row r="965" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -17880,7 +17844,7 @@
       <c r="K965" s="4"/>
       <c r="L965" s="4"/>
     </row>
-    <row r="966" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -17894,7 +17858,7 @@
       <c r="K966" s="4"/>
       <c r="L966" s="4"/>
     </row>
-    <row r="967" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -17908,7 +17872,7 @@
       <c r="K967" s="4"/>
       <c r="L967" s="4"/>
     </row>
-    <row r="968" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -17922,7 +17886,7 @@
       <c r="K968" s="4"/>
       <c r="L968" s="4"/>
     </row>
-    <row r="969" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -17936,7 +17900,7 @@
       <c r="K969" s="4"/>
       <c r="L969" s="4"/>
     </row>
-    <row r="970" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -17950,7 +17914,7 @@
       <c r="K970" s="4"/>
       <c r="L970" s="4"/>
     </row>
-    <row r="971" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -17964,7 +17928,7 @@
       <c r="K971" s="4"/>
       <c r="L971" s="4"/>
     </row>
-    <row r="972" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -17978,7 +17942,7 @@
       <c r="K972" s="4"/>
       <c r="L972" s="4"/>
     </row>
-    <row r="973" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -17992,7 +17956,7 @@
       <c r="K973" s="4"/>
       <c r="L973" s="4"/>
     </row>
-    <row r="974" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -18006,7 +17970,7 @@
       <c r="K974" s="4"/>
       <c r="L974" s="4"/>
     </row>
-    <row r="975" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -18020,7 +17984,7 @@
       <c r="K975" s="4"/>
       <c r="L975" s="4"/>
     </row>
-    <row r="976" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -18034,7 +17998,7 @@
       <c r="K976" s="4"/>
       <c r="L976" s="4"/>
     </row>
-    <row r="977" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -18048,7 +18012,7 @@
       <c r="K977" s="4"/>
       <c r="L977" s="4"/>
     </row>
-    <row r="978" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -18062,7 +18026,7 @@
       <c r="K978" s="4"/>
       <c r="L978" s="4"/>
     </row>
-    <row r="979" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -18076,7 +18040,7 @@
       <c r="K979" s="4"/>
       <c r="L979" s="4"/>
     </row>
-    <row r="980" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -18090,7 +18054,7 @@
       <c r="K980" s="4"/>
       <c r="L980" s="4"/>
     </row>
-    <row r="981" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -18104,7 +18068,7 @@
       <c r="K981" s="4"/>
       <c r="L981" s="4"/>
     </row>
-    <row r="982" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -18118,7 +18082,7 @@
       <c r="K982" s="4"/>
       <c r="L982" s="4"/>
     </row>
-    <row r="983" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -18132,7 +18096,7 @@
       <c r="K983" s="4"/>
       <c r="L983" s="4"/>
     </row>
-    <row r="984" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -18146,7 +18110,7 @@
       <c r="K984" s="4"/>
       <c r="L984" s="4"/>
     </row>
-    <row r="985" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -18160,7 +18124,7 @@
       <c r="K985" s="4"/>
       <c r="L985" s="4"/>
     </row>
-    <row r="986" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -18174,7 +18138,7 @@
       <c r="K986" s="4"/>
       <c r="L986" s="4"/>
     </row>
-    <row r="987" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -18188,7 +18152,7 @@
       <c r="K987" s="4"/>
       <c r="L987" s="4"/>
     </row>
-    <row r="988" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -18202,7 +18166,7 @@
       <c r="K988" s="4"/>
       <c r="L988" s="4"/>
     </row>
-    <row r="989" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -18216,7 +18180,7 @@
       <c r="K989" s="4"/>
       <c r="L989" s="4"/>
     </row>
-    <row r="990" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -18230,7 +18194,7 @@
       <c r="K990" s="4"/>
       <c r="L990" s="4"/>
     </row>
-    <row r="991" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -18244,7 +18208,7 @@
       <c r="K991" s="4"/>
       <c r="L991" s="4"/>
     </row>
-    <row r="992" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -18258,7 +18222,7 @@
       <c r="K992" s="4"/>
       <c r="L992" s="4"/>
     </row>
-    <row r="993" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -18272,7 +18236,7 @@
       <c r="K993" s="4"/>
       <c r="L993" s="4"/>
     </row>
-    <row r="994" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -18286,7 +18250,7 @@
       <c r="K994" s="4"/>
       <c r="L994" s="4"/>
     </row>
-    <row r="995" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -18300,7 +18264,7 @@
       <c r="K995" s="4"/>
       <c r="L995" s="4"/>
     </row>
-    <row r="996" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -18314,7 +18278,7 @@
       <c r="K996" s="4"/>
       <c r="L996" s="4"/>
     </row>
-    <row r="997" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -18328,7 +18292,7 @@
       <c r="K997" s="4"/>
       <c r="L997" s="4"/>
     </row>
-    <row r="998" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -18342,7 +18306,7 @@
       <c r="K998" s="4"/>
       <c r="L998" s="4"/>
     </row>
-    <row r="999" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -18356,7 +18320,7 @@
       <c r="K999" s="4"/>
       <c r="L999" s="4"/>
     </row>
-    <row r="1000" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:12" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
@@ -18371,279 +18335,279 @@
       <c r="L1000" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K133">
+  <sortState ref="A2:K133">
     <sortCondition descending="1" ref="K2:K133"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{96B9A71E-E65A-4170-80F7-E5C6F3FD9BC0}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{9E44BF50-6325-4E04-A804-ACC68EACE4C5}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{6475DCA2-538A-4025-AC77-D15C3BBF052B}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{546AA5F3-DB50-4999-AA1D-DD435DCB0C75}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{E2D46C2A-6592-4F28-8C11-6AEE47A4C6B2}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{8A313C21-389E-4E6F-81A8-24A1AB71A90C}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{8ED7CD6D-D669-4B1D-98F9-325606DB0324}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{A667F8F4-24BA-42DB-94B5-BE498DB2887E}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{521B0947-42D9-4537-B4C9-B1488B7877AB}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{79BF9E45-0E16-4DEF-88D8-B04C99B87E08}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{3DEC1609-7F62-4E8C-8DF7-F44626EAFE70}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{5A5463B8-A2FD-4501-B8BB-B00D4A56E4E8}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{35697F2F-BD7D-4D1D-87AC-3F4F96511D2A}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{714B014C-E837-4F8C-92FB-FBF057A98244}"/>
-    <hyperlink ref="D9" r:id="rId15" xr:uid="{202D2446-8C55-4A49-8E03-2447B741E568}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{3EC5CD7E-BF83-4F49-8CA8-BF04830435BC}"/>
-    <hyperlink ref="D10" r:id="rId17" xr:uid="{F3047E1E-6816-4BC6-9961-B7A52637F000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{DB8111D9-A514-4DCD-96D2-B227CC4A799F}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{B4ED7CFF-CB28-4263-B338-277AE0E4B67F}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{60F9BFF2-485F-4637-B441-592313575A9C}"/>
-    <hyperlink ref="D12" r:id="rId21" xr:uid="{4A175698-8816-42F3-A223-423252BE0199}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{5278A394-9B65-4576-A242-CEBE2A6BECBE}"/>
-    <hyperlink ref="D13" r:id="rId23" xr:uid="{D070034B-159A-4495-9F24-07B0C2893AF1}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{0F6ACD8D-489A-40B2-BC53-FB3E8AB285DF}"/>
-    <hyperlink ref="D14" r:id="rId25" xr:uid="{737F068A-82E3-46FE-AA07-CB56C67D425F}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{45763DF6-3047-4847-96B5-A666948FAB41}"/>
-    <hyperlink ref="D15" r:id="rId27" xr:uid="{225802A5-E8E4-43AE-AE8B-0F0F0F816047}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{9CB6D476-C4FA-45D3-8666-AEAEE0C88274}"/>
-    <hyperlink ref="D16" r:id="rId29" xr:uid="{184C9868-BEA8-49E2-95E9-A0F66705C625}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{8CF25041-27B6-402C-B405-57F8B73C53FD}"/>
-    <hyperlink ref="D17" r:id="rId31" xr:uid="{A33C5DE6-5C94-420E-8D33-F393ED12C1DF}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{A452D873-727C-487F-886C-BE3CFE0DF239}"/>
-    <hyperlink ref="D18" r:id="rId33" xr:uid="{A84F406F-D13C-4A37-B922-B39F6768E0E2}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{5C17C627-8433-4637-8580-779D6CFEEB46}"/>
-    <hyperlink ref="D19" r:id="rId35" xr:uid="{9A661686-A4EE-46C2-8A4B-DF5C80C5F4AA}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{55F190E0-0AFD-4A2F-8BDC-64EB250E3C68}"/>
-    <hyperlink ref="D20" r:id="rId37" xr:uid="{822E5E41-1527-4BD9-A1EB-EC5294429919}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{63A01A4B-D350-4901-BFA3-A9C3E9288EA7}"/>
-    <hyperlink ref="D21" r:id="rId39" xr:uid="{5D1BDC8D-7D25-41B5-AFC3-8B10A305BD18}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{8B57A605-245E-4F74-A66B-210532A82624}"/>
-    <hyperlink ref="D22" r:id="rId41" xr:uid="{86EBFA49-10C2-4F24-A9FD-04EDC458A48F}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{4EDAEA73-32C8-4419-9F8A-E6ABAC0ED137}"/>
-    <hyperlink ref="D23" r:id="rId43" xr:uid="{C0941420-8368-4B23-8F40-85B1A7752A11}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{C00B5D40-1064-4518-9541-F1B171E42E4B}"/>
-    <hyperlink ref="D24" r:id="rId45" xr:uid="{CD11CD56-1E62-4612-87CB-C20D669DE0BC}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{0CE1BC80-6E9F-4086-8DCD-0C8BF9EE0AFB}"/>
-    <hyperlink ref="D25" r:id="rId47" xr:uid="{67B0EC18-CE22-4313-8F0B-77D3C42BD38C}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{177F8A9C-B8D8-4CD5-85BC-CE882D0203BC}"/>
-    <hyperlink ref="D26" r:id="rId49" xr:uid="{FFCD1E58-E916-47E9-8D59-7FE9914BE17C}"/>
-    <hyperlink ref="I26" r:id="rId50" xr:uid="{D7A56FA6-8ADC-411D-ABF8-A9F57DF5F7CC}"/>
-    <hyperlink ref="D27" r:id="rId51" xr:uid="{F56F78FB-0A3F-427B-9944-6F5242705E32}"/>
-    <hyperlink ref="I27" r:id="rId52" xr:uid="{F5846F19-9B1E-44C1-8D6C-34731E2F2291}"/>
-    <hyperlink ref="D28" r:id="rId53" xr:uid="{7E146D8D-A1F3-45C2-AE00-39FC958F5CD4}"/>
-    <hyperlink ref="I28" r:id="rId54" xr:uid="{8548F84F-05C2-495F-84CD-64B7424251F8}"/>
-    <hyperlink ref="D29" r:id="rId55" xr:uid="{1AD6EF6F-3421-4423-B00E-861AD0AA0BB5}"/>
-    <hyperlink ref="I29" r:id="rId56" xr:uid="{ED6E6A50-2B89-4CA0-9C38-D8C3A3B22EEA}"/>
-    <hyperlink ref="D30" r:id="rId57" xr:uid="{55A7CA09-439D-430B-9D9C-67C488589F39}"/>
-    <hyperlink ref="I30" r:id="rId58" xr:uid="{1F2B9786-A893-4716-AFB3-F4548F5D0B67}"/>
-    <hyperlink ref="D31" r:id="rId59" xr:uid="{4308CAE2-BAB7-44DD-82C6-109644B97654}"/>
-    <hyperlink ref="I31" r:id="rId60" xr:uid="{3FBA9394-8EA5-4E7D-953C-A2DBA4566901}"/>
-    <hyperlink ref="D32" r:id="rId61" xr:uid="{62EE9482-391C-417F-BD5A-494ECC2624E4}"/>
-    <hyperlink ref="I32" r:id="rId62" xr:uid="{19BDAC59-2DAB-4093-A5D5-B8B07B9EB4AF}"/>
-    <hyperlink ref="D33" r:id="rId63" xr:uid="{1989B993-1C04-4004-8177-A914A52ED246}"/>
-    <hyperlink ref="I33" r:id="rId64" xr:uid="{D77F32D1-8C0D-4610-8E90-CDB3CCF81B58}"/>
-    <hyperlink ref="D34" r:id="rId65" xr:uid="{52FFFA75-C3F5-4DC1-9AB5-846FE13384F4}"/>
-    <hyperlink ref="I34" r:id="rId66" xr:uid="{D1A44EE5-0E29-4C68-A2A8-60F466DF5028}"/>
-    <hyperlink ref="D35" r:id="rId67" xr:uid="{A759C3E0-2BCD-46DF-8039-5B7F2B412ED1}"/>
-    <hyperlink ref="I35" r:id="rId68" xr:uid="{8A2220FE-3EEF-4005-BB3B-8A163337642B}"/>
-    <hyperlink ref="D36" r:id="rId69" xr:uid="{2E5BF069-BF0B-49D7-9A56-8B4ADF02D9AB}"/>
-    <hyperlink ref="I36" r:id="rId70" xr:uid="{D90DBC2D-C2EC-47DC-B019-145AD99588A5}"/>
-    <hyperlink ref="D37" r:id="rId71" xr:uid="{FB6F62C6-7CEF-41F7-811B-721BC2942E84}"/>
-    <hyperlink ref="I37" r:id="rId72" xr:uid="{D4777927-9609-4679-81BF-353571E650D1}"/>
-    <hyperlink ref="D38" r:id="rId73" xr:uid="{95E423BE-FF3B-4A05-A5A3-83444588FB70}"/>
-    <hyperlink ref="I38" r:id="rId74" xr:uid="{4C87458D-25C1-4A38-8CAE-A80D44761B69}"/>
-    <hyperlink ref="D39" r:id="rId75" xr:uid="{CF42EF34-CCEF-4296-89AA-D9B09CBACD1E}"/>
-    <hyperlink ref="I39" r:id="rId76" xr:uid="{DF6FACCB-215E-4EE9-96BD-3C8292824866}"/>
-    <hyperlink ref="D40" r:id="rId77" xr:uid="{8D33707E-0808-45C7-9957-6609EAB50B18}"/>
-    <hyperlink ref="I40" r:id="rId78" xr:uid="{BD3A93CC-0C23-430B-AE0D-66C4F6F47BA6}"/>
-    <hyperlink ref="D41" r:id="rId79" xr:uid="{D90E5124-5423-41ED-9340-CD22CD443EF2}"/>
-    <hyperlink ref="I41" r:id="rId80" xr:uid="{08DA109A-4760-4CD1-86C2-624F465999A7}"/>
-    <hyperlink ref="D42" r:id="rId81" xr:uid="{669FD09A-B2E6-4D52-B42D-F135DF2741D5}"/>
-    <hyperlink ref="I42" r:id="rId82" xr:uid="{443D990F-C0C5-48C7-9A22-A68AED4E7927}"/>
-    <hyperlink ref="D43" r:id="rId83" xr:uid="{1F3755A4-E163-4E45-BC69-F6417885E08B}"/>
-    <hyperlink ref="I43" r:id="rId84" xr:uid="{379DE334-6765-464B-ADB6-A9EEC6B120A4}"/>
-    <hyperlink ref="D44" r:id="rId85" xr:uid="{7C490FC8-5D6E-4E78-9334-705192B65C02}"/>
-    <hyperlink ref="I44" r:id="rId86" xr:uid="{EB90DB83-9C40-4D42-BF9B-7F133BD93378}"/>
-    <hyperlink ref="D45" r:id="rId87" xr:uid="{04E5E1C1-C194-4922-979F-830B3DDD2E82}"/>
-    <hyperlink ref="I45" r:id="rId88" xr:uid="{50D89AF6-C15F-4CE5-A756-D8E64A4AF359}"/>
-    <hyperlink ref="D46" r:id="rId89" xr:uid="{0589557C-38FE-4240-BC29-B364FDE0F0F3}"/>
-    <hyperlink ref="I46" r:id="rId90" xr:uid="{2A3BD592-9458-43C5-854F-96E02AF608B5}"/>
-    <hyperlink ref="D47" r:id="rId91" xr:uid="{8444DEEC-75DA-457A-979C-3C3F15747B06}"/>
-    <hyperlink ref="I47" r:id="rId92" xr:uid="{D0033D60-E802-477D-91B9-2D19F6D2E2DE}"/>
-    <hyperlink ref="D48" r:id="rId93" xr:uid="{741C24FA-43EF-482C-90B4-F337D56026BA}"/>
-    <hyperlink ref="I48" r:id="rId94" xr:uid="{327EB122-E64B-428A-9271-4B538623CC83}"/>
-    <hyperlink ref="D49" r:id="rId95" xr:uid="{62FD7CF3-4B2C-45CC-9A5A-462083EC8FE3}"/>
-    <hyperlink ref="I49" r:id="rId96" xr:uid="{565E6FF8-50A1-4185-8BA6-2EAC803A99BC}"/>
-    <hyperlink ref="D50" r:id="rId97" xr:uid="{FB6238A8-65DF-472C-9928-1C07FD7D604A}"/>
-    <hyperlink ref="I50" r:id="rId98" xr:uid="{A7394007-5383-48E0-B2C6-886F532F27B5}"/>
-    <hyperlink ref="D51" r:id="rId99" xr:uid="{66D321B6-9259-4F13-8364-DBA9A5C811E6}"/>
-    <hyperlink ref="I51" r:id="rId100" xr:uid="{6E92AEFB-3CEE-459A-B217-659FBEF28738}"/>
-    <hyperlink ref="D52" r:id="rId101" xr:uid="{544CFBDE-0E04-4177-A6F2-9C1EB466E2C3}"/>
-    <hyperlink ref="I52" r:id="rId102" xr:uid="{41B624CA-3810-4621-9D2B-662B0D0F183C}"/>
-    <hyperlink ref="D53" r:id="rId103" xr:uid="{4E97B451-2B90-4D97-A0C4-164D45E4C957}"/>
-    <hyperlink ref="I53" r:id="rId104" xr:uid="{3BEDCBEB-BB39-4951-94A8-C8847DA4CD16}"/>
-    <hyperlink ref="D54" r:id="rId105" xr:uid="{140AB6EB-C639-4030-9F4C-F69167674A6F}"/>
-    <hyperlink ref="I54" r:id="rId106" xr:uid="{BDDCD6CD-160B-4516-A455-D78C3B25B2A8}"/>
-    <hyperlink ref="D55" r:id="rId107" xr:uid="{D56D7154-2030-4FC9-B985-834B815774DA}"/>
-    <hyperlink ref="I55" r:id="rId108" xr:uid="{212BDFBB-7337-4F99-A220-1737C2138502}"/>
-    <hyperlink ref="D56" r:id="rId109" xr:uid="{2FFAF43D-0442-4DE8-A87A-AC39105C06F6}"/>
-    <hyperlink ref="I56" r:id="rId110" xr:uid="{4AA24946-84C1-4B1C-807E-23C5A77E4841}"/>
-    <hyperlink ref="D57" r:id="rId111" xr:uid="{86BF98BF-29CA-4B88-A3EB-4E8D74A81517}"/>
-    <hyperlink ref="I57" r:id="rId112" xr:uid="{9F8B2C97-3858-4D6D-A798-56AF84EE183B}"/>
-    <hyperlink ref="D58" r:id="rId113" xr:uid="{4887549F-E9AD-4307-BBF0-4DD3890B696E}"/>
-    <hyperlink ref="I58" r:id="rId114" xr:uid="{1818A1B3-6D7C-4BA6-BA04-BE5C01486D9F}"/>
-    <hyperlink ref="D59" r:id="rId115" xr:uid="{6BFC61D3-56C6-4171-A2AD-A668E2979D1A}"/>
-    <hyperlink ref="I59" r:id="rId116" xr:uid="{22FAFDAA-C387-4CAC-833E-7A01E72DF610}"/>
-    <hyperlink ref="D60" r:id="rId117" xr:uid="{DA646E24-D77D-4F65-B4F2-5AE3F6B859C0}"/>
-    <hyperlink ref="I60" r:id="rId118" xr:uid="{91A559BC-4ED9-46F4-8A9F-9F1D30E59D3A}"/>
-    <hyperlink ref="D61" r:id="rId119" xr:uid="{19588429-BD5F-445A-90DD-0C498625E90D}"/>
-    <hyperlink ref="I61" r:id="rId120" xr:uid="{02834466-792D-4531-81F5-FC3B1D21F8FF}"/>
-    <hyperlink ref="D62" r:id="rId121" xr:uid="{9C709FAB-5AE1-457F-9E55-80CB49D27A90}"/>
-    <hyperlink ref="I62" r:id="rId122" xr:uid="{8ABD7499-7361-4DBC-B269-DD6509936CEC}"/>
-    <hyperlink ref="D63" r:id="rId123" xr:uid="{EDC2A6BC-7713-4F6B-8928-C8EE556AB5D1}"/>
-    <hyperlink ref="I63" r:id="rId124" xr:uid="{F6FF0E83-1AD4-4929-8213-B0423E565803}"/>
-    <hyperlink ref="D64" r:id="rId125" xr:uid="{FBD57F96-158D-4323-B478-4A197CB61BE8}"/>
-    <hyperlink ref="I64" r:id="rId126" xr:uid="{5C7AF3D8-D7FC-45A0-B267-1928F1FA9D43}"/>
-    <hyperlink ref="D65" r:id="rId127" xr:uid="{7B77655D-CE32-419C-B513-E0EA1DD6B89F}"/>
-    <hyperlink ref="I65" r:id="rId128" xr:uid="{27CED7FB-B60D-4C7C-94F8-7EB8ECEE5822}"/>
-    <hyperlink ref="D66" r:id="rId129" xr:uid="{B01295BE-37D8-41CC-B953-C8042E7E46E9}"/>
-    <hyperlink ref="I66" r:id="rId130" xr:uid="{AEEFD80D-FB37-425B-A057-63EEDD082423}"/>
-    <hyperlink ref="D67" r:id="rId131" xr:uid="{5D6EF5C5-813E-4B89-9B87-664AAD6A89E6}"/>
-    <hyperlink ref="I67" r:id="rId132" xr:uid="{4D3CDDE1-3DA3-4A02-A4D0-933302C31863}"/>
-    <hyperlink ref="D68" r:id="rId133" xr:uid="{47C1A026-CE8E-47A4-AE6D-D26F8D52C7FB}"/>
-    <hyperlink ref="I68" r:id="rId134" xr:uid="{2F02006B-3D1D-43BC-8639-FFE2301B59A0}"/>
-    <hyperlink ref="D69" r:id="rId135" xr:uid="{97AA8955-2ED0-469B-BD79-800D9474CB3F}"/>
-    <hyperlink ref="I69" r:id="rId136" xr:uid="{D359C20D-3DC1-433E-A56B-DC77B43B2ADD}"/>
-    <hyperlink ref="D70" r:id="rId137" xr:uid="{8A9E9509-1B75-406C-A119-906BCFC95366}"/>
-    <hyperlink ref="I70" r:id="rId138" xr:uid="{43D460F9-1777-480A-BE7B-FE50316C2C1D}"/>
-    <hyperlink ref="D71" r:id="rId139" xr:uid="{8CF8EF28-D302-4199-9FCD-E72FC0DA9D09}"/>
-    <hyperlink ref="I71" r:id="rId140" xr:uid="{C30434C6-BF8B-4FFF-BDDA-0AFBFFA6951C}"/>
-    <hyperlink ref="D72" r:id="rId141" xr:uid="{0723D4EA-C083-424E-9B92-87A4CC1B1138}"/>
-    <hyperlink ref="I72" r:id="rId142" xr:uid="{3E497E83-4232-4851-8561-E95FB564AFAB}"/>
-    <hyperlink ref="D73" r:id="rId143" xr:uid="{8991DE06-FD70-48CE-A2EC-FF6F0222572A}"/>
-    <hyperlink ref="I73" r:id="rId144" xr:uid="{3DFAA362-929B-434C-99FF-8E4F7F02CC30}"/>
-    <hyperlink ref="D74" r:id="rId145" xr:uid="{F3F84B53-47FE-4F86-9572-E4C4C3A3E240}"/>
-    <hyperlink ref="I74" r:id="rId146" xr:uid="{7766A0B7-4893-4FEF-9B74-B51553A14533}"/>
-    <hyperlink ref="D75" r:id="rId147" xr:uid="{40206F45-6B20-430C-9E6D-B2E2A1A3DA43}"/>
-    <hyperlink ref="I75" r:id="rId148" xr:uid="{8125799C-ACD6-44AC-B37F-C09BF9865393}"/>
-    <hyperlink ref="D76" r:id="rId149" xr:uid="{78CAF593-C932-486F-9800-5F8614ED0529}"/>
-    <hyperlink ref="I76" r:id="rId150" xr:uid="{0F1F846B-07CA-4436-BA4F-F33153319A63}"/>
-    <hyperlink ref="D77" r:id="rId151" xr:uid="{DCEF0351-B965-4E9C-BFA0-B55BB5E7A1E5}"/>
-    <hyperlink ref="I77" r:id="rId152" xr:uid="{5905261E-5374-4DA1-9FE1-AF1318B52CEB}"/>
-    <hyperlink ref="D78" r:id="rId153" xr:uid="{36218D20-F106-4A42-94C6-5B5C22588E37}"/>
-    <hyperlink ref="I78" r:id="rId154" xr:uid="{E937FED4-1B45-4F51-86E8-5356ED4B39F3}"/>
-    <hyperlink ref="D79" r:id="rId155" xr:uid="{4D4F4E89-9620-4C45-A63D-E14C09B52053}"/>
-    <hyperlink ref="I79" r:id="rId156" xr:uid="{774F5D29-D62B-4519-916A-AAFF9357C4EB}"/>
-    <hyperlink ref="D80" r:id="rId157" xr:uid="{8B487EEE-9334-487B-BEBE-594F669B7724}"/>
-    <hyperlink ref="I80" r:id="rId158" xr:uid="{16E6AAEF-ED5A-483F-A7AC-2AF97443DB25}"/>
-    <hyperlink ref="D81" r:id="rId159" xr:uid="{DCF82378-49EA-49A7-800B-3D1586265B22}"/>
-    <hyperlink ref="I81" r:id="rId160" xr:uid="{1A9AF458-3A51-4823-8C81-E0F4E00EF5B2}"/>
-    <hyperlink ref="D82" r:id="rId161" xr:uid="{FEB0030E-8806-4A64-9B4E-C7E99348B44F}"/>
-    <hyperlink ref="I82" r:id="rId162" xr:uid="{52AEED59-85CB-4CC6-BA15-36DF83DBE79F}"/>
-    <hyperlink ref="D83" r:id="rId163" xr:uid="{6926BB81-65F0-45A4-B777-1067D2F9C8D5}"/>
-    <hyperlink ref="I83" r:id="rId164" xr:uid="{30309DC2-CFF2-4386-B068-E1ECB5FEF8EA}"/>
-    <hyperlink ref="D84" r:id="rId165" xr:uid="{367CA587-CDFA-4EAE-AB9A-B0AADE414947}"/>
-    <hyperlink ref="I84" r:id="rId166" xr:uid="{9926F22F-5ECB-43BB-9FFD-6B651206A508}"/>
-    <hyperlink ref="D85" r:id="rId167" xr:uid="{B5FAE024-FF0C-467A-98A2-60A32511D9B5}"/>
-    <hyperlink ref="I85" r:id="rId168" xr:uid="{B96BF7A3-7138-42F7-95CB-53263C9E8366}"/>
-    <hyperlink ref="D86" r:id="rId169" xr:uid="{EF2E9D13-D149-4E4A-A88E-71C899D63311}"/>
-    <hyperlink ref="I86" r:id="rId170" xr:uid="{0A80109C-0232-4005-95E1-E13377E10DA8}"/>
-    <hyperlink ref="D87" r:id="rId171" xr:uid="{82260ADB-A70B-45E0-B8B0-3D3C27439959}"/>
-    <hyperlink ref="I87" r:id="rId172" xr:uid="{179B4E9D-76B7-437A-966C-F16527852BE7}"/>
-    <hyperlink ref="D88" r:id="rId173" xr:uid="{305C1BA4-6380-49FC-BE6A-8389B74B672D}"/>
-    <hyperlink ref="I88" r:id="rId174" xr:uid="{CC1643A4-760F-429A-8153-9EEB4031A0B9}"/>
-    <hyperlink ref="D89" r:id="rId175" xr:uid="{3F15DF9A-A862-484B-ADAF-7CBD7E1E11CE}"/>
-    <hyperlink ref="I89" r:id="rId176" xr:uid="{4AD3866D-3725-4C65-B0AA-4BFB5F14979A}"/>
-    <hyperlink ref="D90" r:id="rId177" xr:uid="{F9417BDD-190C-43DD-93AF-4BEBD6CC4DC4}"/>
-    <hyperlink ref="I90" r:id="rId178" xr:uid="{AEBD344D-2241-45D4-9891-3CC1FA13B82D}"/>
-    <hyperlink ref="D91" r:id="rId179" xr:uid="{FA6EA4D9-359D-4C82-9B33-1053ED54146E}"/>
-    <hyperlink ref="I91" r:id="rId180" xr:uid="{3DAB3692-AB30-4F02-9E98-38680E5EBAF0}"/>
-    <hyperlink ref="D92" r:id="rId181" xr:uid="{2F6804AB-0FF0-41C5-8DDD-DB2EF7814501}"/>
-    <hyperlink ref="I92" r:id="rId182" xr:uid="{19522C06-1D37-4CC6-82A6-04E5163FF38C}"/>
-    <hyperlink ref="D93" r:id="rId183" xr:uid="{E70B4AA4-D9C1-488B-A266-BDFA9F62BA13}"/>
-    <hyperlink ref="I93" r:id="rId184" xr:uid="{3EBC4D1C-36C4-4573-A271-A4636C303FE8}"/>
-    <hyperlink ref="D94" r:id="rId185" xr:uid="{EC2E2E05-B5C2-46F0-BC95-64EA62FDFF36}"/>
-    <hyperlink ref="I94" r:id="rId186" xr:uid="{FAE911FC-4260-456B-A989-2EB91A80B7FB}"/>
-    <hyperlink ref="D95" r:id="rId187" xr:uid="{FFF862A6-A135-4F89-8305-68AA1FE914E5}"/>
-    <hyperlink ref="I95" r:id="rId188" xr:uid="{D7F4A7A8-3EA3-48D5-BEDC-783E5413142C}"/>
-    <hyperlink ref="D96" r:id="rId189" xr:uid="{0CB022BD-2D9A-4F61-8FDD-94DA4F2574A4}"/>
-    <hyperlink ref="I96" r:id="rId190" xr:uid="{9F11DAE3-F290-4669-9017-CA1524AF35FA}"/>
-    <hyperlink ref="D97" r:id="rId191" xr:uid="{FAC1A3A3-EA5E-4760-ABE7-99F94D59ACFC}"/>
-    <hyperlink ref="I97" r:id="rId192" xr:uid="{F1D959CD-8165-4030-9ABC-DE6218E5A17F}"/>
-    <hyperlink ref="D98" r:id="rId193" xr:uid="{791561C8-EB40-493B-A0A7-CC7914425266}"/>
-    <hyperlink ref="I98" r:id="rId194" xr:uid="{0DBC4BD6-7C75-4DC5-942B-FB10BFB173C3}"/>
-    <hyperlink ref="D99" r:id="rId195" xr:uid="{D5E13BBA-B717-4654-84A0-E68A45718E22}"/>
-    <hyperlink ref="I99" r:id="rId196" xr:uid="{A10C0ECA-AB62-4685-8B23-31FDF7387607}"/>
-    <hyperlink ref="D100" r:id="rId197" xr:uid="{1C3DEC9A-4C4E-4CDA-A5D7-5F27B6AB0045}"/>
-    <hyperlink ref="I100" r:id="rId198" xr:uid="{605FE531-BF26-422E-9491-A412163C1E93}"/>
-    <hyperlink ref="D101" r:id="rId199" xr:uid="{EFC77B89-3EF7-4BA1-90D9-BD9AE580087E}"/>
-    <hyperlink ref="I101" r:id="rId200" xr:uid="{0C2E487C-563D-4A19-9BB8-1FF2E18EEE46}"/>
-    <hyperlink ref="D102" r:id="rId201" xr:uid="{287ACB18-1A75-4271-B4FA-837752FBCAC5}"/>
-    <hyperlink ref="I102" r:id="rId202" xr:uid="{45E2670C-E546-42F7-AC3E-543E9D301810}"/>
-    <hyperlink ref="D103" r:id="rId203" xr:uid="{11256104-41A0-4FB6-B310-716640D56FD2}"/>
-    <hyperlink ref="I103" r:id="rId204" xr:uid="{4355B5FA-FB59-47FD-9685-A888E95B69F1}"/>
-    <hyperlink ref="D104" r:id="rId205" xr:uid="{80F3EDAA-E1F0-40C3-A398-BCF9D34E1571}"/>
-    <hyperlink ref="I104" r:id="rId206" xr:uid="{78131EC8-BAD0-4F25-808F-94CED2512504}"/>
-    <hyperlink ref="D105" r:id="rId207" xr:uid="{C757F5BA-25AA-40BE-B5CD-0C79579C0635}"/>
-    <hyperlink ref="I105" r:id="rId208" xr:uid="{A65CE9B6-C29C-4412-91BD-4616D3184336}"/>
-    <hyperlink ref="D106" r:id="rId209" xr:uid="{578500ED-9304-4FFF-93F1-08C3D9CE5701}"/>
-    <hyperlink ref="I106" r:id="rId210" xr:uid="{A9775407-16A2-4089-9AC5-63FCA23BCA51}"/>
-    <hyperlink ref="D107" r:id="rId211" xr:uid="{786B8E2C-2712-41E0-87C5-A34B07142086}"/>
-    <hyperlink ref="I107" r:id="rId212" xr:uid="{EC8A543F-3523-4797-A45E-720D812F1A0F}"/>
-    <hyperlink ref="D108" r:id="rId213" xr:uid="{D4DB78F3-6C2B-4C09-8218-40BF7DA9B0F7}"/>
-    <hyperlink ref="I108" r:id="rId214" xr:uid="{8F19C91E-5631-40AD-B0CF-1ADB735C9A57}"/>
-    <hyperlink ref="D109" r:id="rId215" xr:uid="{760870F8-FCAE-447E-93E2-8804ABFCF66B}"/>
-    <hyperlink ref="I109" r:id="rId216" xr:uid="{234869FD-B730-4A09-AAFD-65CA9C8B0F85}"/>
-    <hyperlink ref="D110" r:id="rId217" xr:uid="{55A5AD30-D920-4E10-AA46-0F05109A36EE}"/>
-    <hyperlink ref="I110" r:id="rId218" xr:uid="{65A7ED8D-22FE-4204-BDEF-F00CA8E9C985}"/>
-    <hyperlink ref="D111" r:id="rId219" xr:uid="{883B8613-173A-410E-B287-EADD52E2AF34}"/>
-    <hyperlink ref="I111" r:id="rId220" xr:uid="{FA02EA39-605D-4237-B891-3D609C87B3DD}"/>
-    <hyperlink ref="D112" r:id="rId221" xr:uid="{515C2794-3042-45AB-884F-D0F32CD46924}"/>
-    <hyperlink ref="I112" r:id="rId222" xr:uid="{B543F0F3-2BF5-47D1-85C8-AC9F48C7E966}"/>
-    <hyperlink ref="D113" r:id="rId223" xr:uid="{09E1098C-2DC0-4817-B6C2-F81F411EF160}"/>
-    <hyperlink ref="I113" r:id="rId224" xr:uid="{88972832-AA2B-4CD7-BDD5-D1AE7CFCF6AC}"/>
-    <hyperlink ref="D114" r:id="rId225" xr:uid="{20D98E54-0614-4245-9C39-054989200C86}"/>
-    <hyperlink ref="I114" r:id="rId226" xr:uid="{75FCD589-967C-4C50-96F0-B85E06EA938F}"/>
-    <hyperlink ref="D115" r:id="rId227" xr:uid="{9D5273F8-7944-4C34-AD9C-3A8E1DD8FAD2}"/>
-    <hyperlink ref="I115" r:id="rId228" xr:uid="{D206ACA7-17E0-460F-ABCF-CE26ED58DE79}"/>
-    <hyperlink ref="D116" r:id="rId229" xr:uid="{0D5C8213-A4CE-4F61-9BD9-7A6FB3521E83}"/>
-    <hyperlink ref="I116" r:id="rId230" xr:uid="{23A26FAF-2FD7-4E8C-AE49-4D0F91D59E5A}"/>
-    <hyperlink ref="D117" r:id="rId231" xr:uid="{CAAA0A45-930E-4F0A-BE92-04A51D7E8E84}"/>
-    <hyperlink ref="I117" r:id="rId232" xr:uid="{ACB8D566-52C4-4E3B-A08F-8ADF56DF747C}"/>
-    <hyperlink ref="D118" r:id="rId233" xr:uid="{BEE759ED-0FEB-4782-A829-E0C977CA3866}"/>
-    <hyperlink ref="I118" r:id="rId234" xr:uid="{C82BCAAE-C1D1-4FF0-82BF-E04034D164CE}"/>
-    <hyperlink ref="D119" r:id="rId235" xr:uid="{55A6A903-BE91-4608-8504-98836A407A22}"/>
-    <hyperlink ref="I119" r:id="rId236" xr:uid="{412CA197-B357-4AC5-B56F-6D45156118F7}"/>
-    <hyperlink ref="D120" r:id="rId237" xr:uid="{8ABFB078-57B7-4662-AE00-932522A198C5}"/>
-    <hyperlink ref="I120" r:id="rId238" xr:uid="{B71332E8-6CDD-4F83-BF2A-61F88B6687CF}"/>
-    <hyperlink ref="D121" r:id="rId239" xr:uid="{EED55E25-2AE5-4DDE-AC35-4463BA06AF9E}"/>
-    <hyperlink ref="I121" r:id="rId240" xr:uid="{77D85357-77F2-4187-AF38-68FE5279E7B9}"/>
-    <hyperlink ref="D122" r:id="rId241" xr:uid="{A6F46966-74E3-4731-8981-BB82A4174F70}"/>
-    <hyperlink ref="I122" r:id="rId242" xr:uid="{813CA145-D0FC-4218-9C12-327F2406455A}"/>
-    <hyperlink ref="D123" r:id="rId243" xr:uid="{4E5A2589-E586-41FD-95AE-85906F54BF9F}"/>
-    <hyperlink ref="I123" r:id="rId244" xr:uid="{358A2D61-9F5B-43F8-8302-D206A8B52F30}"/>
-    <hyperlink ref="D124" r:id="rId245" xr:uid="{4013D21C-A5C2-4C28-BBFD-2FE8924B14A8}"/>
-    <hyperlink ref="I124" r:id="rId246" xr:uid="{0E5E118C-C57B-4508-AB68-2CD1B4914318}"/>
-    <hyperlink ref="D125" r:id="rId247" xr:uid="{034E5017-42B6-4E19-8B8D-4F0DD21B14C1}"/>
-    <hyperlink ref="I125" r:id="rId248" xr:uid="{CB1FD5BC-2F22-4930-826F-ABC445C59028}"/>
-    <hyperlink ref="D126" r:id="rId249" xr:uid="{14CCDC02-825B-4FC4-99A5-6D497BBE48CA}"/>
-    <hyperlink ref="I126" r:id="rId250" xr:uid="{F9D2A450-E9E1-4DEA-8132-C44F85D44AF7}"/>
-    <hyperlink ref="D127" r:id="rId251" xr:uid="{7891B045-B56B-449C-8A9D-D6F516AD1C79}"/>
-    <hyperlink ref="I127" r:id="rId252" xr:uid="{7D6410E0-51B1-44E0-A54F-08CC036C3D3F}"/>
-    <hyperlink ref="D128" r:id="rId253" xr:uid="{B6D271CA-36DE-4D99-915C-7B4EBDAC3D6C}"/>
-    <hyperlink ref="I128" r:id="rId254" xr:uid="{12304381-D224-4D77-B43A-889D66A4DD08}"/>
-    <hyperlink ref="D129" r:id="rId255" xr:uid="{3CE8CC2D-D735-4B7C-8094-1E2EEA522871}"/>
-    <hyperlink ref="I129" r:id="rId256" xr:uid="{859C312E-BC36-41BA-8024-F4E3A311F1AF}"/>
-    <hyperlink ref="D130" r:id="rId257" xr:uid="{DF70B8A0-2345-4F85-8905-77A492676B4F}"/>
-    <hyperlink ref="I130" r:id="rId258" xr:uid="{F79F1B6B-592B-42E9-B2D1-C14A57295B3E}"/>
-    <hyperlink ref="D131" r:id="rId259" xr:uid="{8126AEB1-9966-4F5E-A17B-B19FBF5A92D3}"/>
-    <hyperlink ref="I131" r:id="rId260" xr:uid="{36A08E0E-1C46-4CFB-98CC-7E79887994B3}"/>
-    <hyperlink ref="D132" r:id="rId261" xr:uid="{A5E24137-26B1-41B7-B072-FA8A8D884781}"/>
-    <hyperlink ref="I132" r:id="rId262" xr:uid="{EA934CBC-95FD-4743-95CB-E1D5107A750E}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="D10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="D20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="D21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="D22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="D23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="D24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="D25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="D26" r:id="rId49"/>
+    <hyperlink ref="I26" r:id="rId50"/>
+    <hyperlink ref="D27" r:id="rId51"/>
+    <hyperlink ref="I27" r:id="rId52"/>
+    <hyperlink ref="D28" r:id="rId53"/>
+    <hyperlink ref="I28" r:id="rId54"/>
+    <hyperlink ref="D29" r:id="rId55"/>
+    <hyperlink ref="I29" r:id="rId56"/>
+    <hyperlink ref="D30" r:id="rId57"/>
+    <hyperlink ref="I30" r:id="rId58"/>
+    <hyperlink ref="D31" r:id="rId59"/>
+    <hyperlink ref="I31" r:id="rId60"/>
+    <hyperlink ref="D32" r:id="rId61"/>
+    <hyperlink ref="I32" r:id="rId62"/>
+    <hyperlink ref="D33" r:id="rId63"/>
+    <hyperlink ref="I33" r:id="rId64"/>
+    <hyperlink ref="D34" r:id="rId65"/>
+    <hyperlink ref="I34" r:id="rId66"/>
+    <hyperlink ref="D35" r:id="rId67"/>
+    <hyperlink ref="I35" r:id="rId68"/>
+    <hyperlink ref="D36" r:id="rId69"/>
+    <hyperlink ref="I36" r:id="rId70"/>
+    <hyperlink ref="D37" r:id="rId71"/>
+    <hyperlink ref="I37" r:id="rId72"/>
+    <hyperlink ref="D38" r:id="rId73"/>
+    <hyperlink ref="I38" r:id="rId74"/>
+    <hyperlink ref="D39" r:id="rId75"/>
+    <hyperlink ref="I39" r:id="rId76"/>
+    <hyperlink ref="D40" r:id="rId77"/>
+    <hyperlink ref="I40" r:id="rId78"/>
+    <hyperlink ref="D41" r:id="rId79"/>
+    <hyperlink ref="I41" r:id="rId80"/>
+    <hyperlink ref="D42" r:id="rId81"/>
+    <hyperlink ref="I42" r:id="rId82"/>
+    <hyperlink ref="D43" r:id="rId83"/>
+    <hyperlink ref="I43" r:id="rId84"/>
+    <hyperlink ref="D44" r:id="rId85"/>
+    <hyperlink ref="I44" r:id="rId86"/>
+    <hyperlink ref="D45" r:id="rId87"/>
+    <hyperlink ref="I45" r:id="rId88"/>
+    <hyperlink ref="D46" r:id="rId89"/>
+    <hyperlink ref="I46" r:id="rId90"/>
+    <hyperlink ref="D47" r:id="rId91"/>
+    <hyperlink ref="I47" r:id="rId92"/>
+    <hyperlink ref="D48" r:id="rId93"/>
+    <hyperlink ref="I48" r:id="rId94"/>
+    <hyperlink ref="D49" r:id="rId95"/>
+    <hyperlink ref="I49" r:id="rId96"/>
+    <hyperlink ref="D50" r:id="rId97"/>
+    <hyperlink ref="I50" r:id="rId98"/>
+    <hyperlink ref="D51" r:id="rId99"/>
+    <hyperlink ref="I51" r:id="rId100"/>
+    <hyperlink ref="D52" r:id="rId101"/>
+    <hyperlink ref="I52" r:id="rId102"/>
+    <hyperlink ref="D53" r:id="rId103"/>
+    <hyperlink ref="I53" r:id="rId104"/>
+    <hyperlink ref="D54" r:id="rId105"/>
+    <hyperlink ref="I54" r:id="rId106"/>
+    <hyperlink ref="D55" r:id="rId107"/>
+    <hyperlink ref="I55" r:id="rId108"/>
+    <hyperlink ref="D56" r:id="rId109"/>
+    <hyperlink ref="I56" r:id="rId110"/>
+    <hyperlink ref="D57" r:id="rId111"/>
+    <hyperlink ref="I57" r:id="rId112"/>
+    <hyperlink ref="D58" r:id="rId113"/>
+    <hyperlink ref="I58" r:id="rId114"/>
+    <hyperlink ref="D59" r:id="rId115"/>
+    <hyperlink ref="I59" r:id="rId116"/>
+    <hyperlink ref="D60" r:id="rId117"/>
+    <hyperlink ref="I60" r:id="rId118"/>
+    <hyperlink ref="D61" r:id="rId119"/>
+    <hyperlink ref="I61" r:id="rId120"/>
+    <hyperlink ref="D62" r:id="rId121"/>
+    <hyperlink ref="I62" r:id="rId122"/>
+    <hyperlink ref="D63" r:id="rId123"/>
+    <hyperlink ref="I63" r:id="rId124"/>
+    <hyperlink ref="D64" r:id="rId125"/>
+    <hyperlink ref="I64" r:id="rId126"/>
+    <hyperlink ref="D65" r:id="rId127"/>
+    <hyperlink ref="I65" r:id="rId128"/>
+    <hyperlink ref="D66" r:id="rId129"/>
+    <hyperlink ref="I66" r:id="rId130"/>
+    <hyperlink ref="D67" r:id="rId131"/>
+    <hyperlink ref="I67" r:id="rId132"/>
+    <hyperlink ref="D68" r:id="rId133"/>
+    <hyperlink ref="I68" r:id="rId134"/>
+    <hyperlink ref="D69" r:id="rId135"/>
+    <hyperlink ref="I69" r:id="rId136"/>
+    <hyperlink ref="D70" r:id="rId137"/>
+    <hyperlink ref="I70" r:id="rId138"/>
+    <hyperlink ref="D71" r:id="rId139"/>
+    <hyperlink ref="I71" r:id="rId140"/>
+    <hyperlink ref="D72" r:id="rId141"/>
+    <hyperlink ref="I72" r:id="rId142"/>
+    <hyperlink ref="D73" r:id="rId143"/>
+    <hyperlink ref="I73" r:id="rId144"/>
+    <hyperlink ref="D74" r:id="rId145"/>
+    <hyperlink ref="I74" r:id="rId146"/>
+    <hyperlink ref="D75" r:id="rId147"/>
+    <hyperlink ref="I75" r:id="rId148"/>
+    <hyperlink ref="D76" r:id="rId149"/>
+    <hyperlink ref="I76" r:id="rId150"/>
+    <hyperlink ref="D77" r:id="rId151"/>
+    <hyperlink ref="I77" r:id="rId152"/>
+    <hyperlink ref="D78" r:id="rId153"/>
+    <hyperlink ref="I78" r:id="rId154"/>
+    <hyperlink ref="D79" r:id="rId155"/>
+    <hyperlink ref="I79" r:id="rId156"/>
+    <hyperlink ref="D80" r:id="rId157"/>
+    <hyperlink ref="I80" r:id="rId158"/>
+    <hyperlink ref="D81" r:id="rId159"/>
+    <hyperlink ref="I81" r:id="rId160"/>
+    <hyperlink ref="D82" r:id="rId161"/>
+    <hyperlink ref="I82" r:id="rId162"/>
+    <hyperlink ref="D83" r:id="rId163"/>
+    <hyperlink ref="I83" r:id="rId164"/>
+    <hyperlink ref="D84" r:id="rId165"/>
+    <hyperlink ref="I84" r:id="rId166"/>
+    <hyperlink ref="D85" r:id="rId167"/>
+    <hyperlink ref="I85" r:id="rId168"/>
+    <hyperlink ref="D86" r:id="rId169"/>
+    <hyperlink ref="I86" r:id="rId170"/>
+    <hyperlink ref="D87" r:id="rId171"/>
+    <hyperlink ref="I87" r:id="rId172"/>
+    <hyperlink ref="D88" r:id="rId173"/>
+    <hyperlink ref="I88" r:id="rId174"/>
+    <hyperlink ref="D89" r:id="rId175"/>
+    <hyperlink ref="I89" r:id="rId176"/>
+    <hyperlink ref="D90" r:id="rId177"/>
+    <hyperlink ref="I90" r:id="rId178"/>
+    <hyperlink ref="D91" r:id="rId179"/>
+    <hyperlink ref="I91" r:id="rId180"/>
+    <hyperlink ref="D92" r:id="rId181"/>
+    <hyperlink ref="I92" r:id="rId182"/>
+    <hyperlink ref="D93" r:id="rId183"/>
+    <hyperlink ref="I93" r:id="rId184"/>
+    <hyperlink ref="D94" r:id="rId185"/>
+    <hyperlink ref="I94" r:id="rId186"/>
+    <hyperlink ref="D95" r:id="rId187"/>
+    <hyperlink ref="I95" r:id="rId188"/>
+    <hyperlink ref="D96" r:id="rId189"/>
+    <hyperlink ref="I96" r:id="rId190"/>
+    <hyperlink ref="D97" r:id="rId191"/>
+    <hyperlink ref="I97" r:id="rId192"/>
+    <hyperlink ref="D98" r:id="rId193"/>
+    <hyperlink ref="I98" r:id="rId194"/>
+    <hyperlink ref="D99" r:id="rId195"/>
+    <hyperlink ref="I99" r:id="rId196"/>
+    <hyperlink ref="D100" r:id="rId197"/>
+    <hyperlink ref="I100" r:id="rId198"/>
+    <hyperlink ref="D101" r:id="rId199"/>
+    <hyperlink ref="I101" r:id="rId200"/>
+    <hyperlink ref="D102" r:id="rId201"/>
+    <hyperlink ref="I102" r:id="rId202"/>
+    <hyperlink ref="D103" r:id="rId203"/>
+    <hyperlink ref="I103" r:id="rId204"/>
+    <hyperlink ref="D104" r:id="rId205"/>
+    <hyperlink ref="I104" r:id="rId206"/>
+    <hyperlink ref="D105" r:id="rId207"/>
+    <hyperlink ref="I105" r:id="rId208"/>
+    <hyperlink ref="D106" r:id="rId209"/>
+    <hyperlink ref="I106" r:id="rId210"/>
+    <hyperlink ref="D107" r:id="rId211"/>
+    <hyperlink ref="I107" r:id="rId212"/>
+    <hyperlink ref="D108" r:id="rId213"/>
+    <hyperlink ref="I108" r:id="rId214"/>
+    <hyperlink ref="D109" r:id="rId215"/>
+    <hyperlink ref="I109" r:id="rId216"/>
+    <hyperlink ref="D110" r:id="rId217"/>
+    <hyperlink ref="I110" r:id="rId218"/>
+    <hyperlink ref="D111" r:id="rId219"/>
+    <hyperlink ref="I111" r:id="rId220"/>
+    <hyperlink ref="D112" r:id="rId221"/>
+    <hyperlink ref="I112" r:id="rId222"/>
+    <hyperlink ref="D113" r:id="rId223"/>
+    <hyperlink ref="I113" r:id="rId224"/>
+    <hyperlink ref="D114" r:id="rId225"/>
+    <hyperlink ref="I114" r:id="rId226"/>
+    <hyperlink ref="D115" r:id="rId227"/>
+    <hyperlink ref="I115" r:id="rId228"/>
+    <hyperlink ref="D116" r:id="rId229"/>
+    <hyperlink ref="I116" r:id="rId230"/>
+    <hyperlink ref="D117" r:id="rId231"/>
+    <hyperlink ref="I117" r:id="rId232"/>
+    <hyperlink ref="D118" r:id="rId233"/>
+    <hyperlink ref="I118" r:id="rId234"/>
+    <hyperlink ref="D119" r:id="rId235"/>
+    <hyperlink ref="I119" r:id="rId236"/>
+    <hyperlink ref="D120" r:id="rId237"/>
+    <hyperlink ref="I120" r:id="rId238"/>
+    <hyperlink ref="D121" r:id="rId239"/>
+    <hyperlink ref="I121" r:id="rId240"/>
+    <hyperlink ref="D122" r:id="rId241"/>
+    <hyperlink ref="I122" r:id="rId242"/>
+    <hyperlink ref="D123" r:id="rId243"/>
+    <hyperlink ref="I123" r:id="rId244"/>
+    <hyperlink ref="D124" r:id="rId245"/>
+    <hyperlink ref="I124" r:id="rId246"/>
+    <hyperlink ref="D125" r:id="rId247"/>
+    <hyperlink ref="I125" r:id="rId248"/>
+    <hyperlink ref="D126" r:id="rId249"/>
+    <hyperlink ref="I126" r:id="rId250"/>
+    <hyperlink ref="D127" r:id="rId251"/>
+    <hyperlink ref="I127" r:id="rId252"/>
+    <hyperlink ref="D128" r:id="rId253"/>
+    <hyperlink ref="I128" r:id="rId254"/>
+    <hyperlink ref="D129" r:id="rId255"/>
+    <hyperlink ref="I129" r:id="rId256"/>
+    <hyperlink ref="D130" r:id="rId257"/>
+    <hyperlink ref="I130" r:id="rId258"/>
+    <hyperlink ref="D131" r:id="rId259"/>
+    <hyperlink ref="I131" r:id="rId260"/>
+    <hyperlink ref="D132" r:id="rId261"/>
+    <hyperlink ref="I132" r:id="rId262"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId263"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C9FEB8D-3E11-441C-AEF0-FB3605844165}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>vars!$A$1:$A$7</xm:f>
           </x14:formula1>
@@ -18656,14 +18620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D518F02-CC5C-4A77-BE57-174A6A35B8C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
